--- a/Paper/DSN/Throughput.xlsx
+++ b/Paper/DSN/Throughput.xlsx
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:AN271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:P$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1287,28 +1287,28 @@
         <v>305.484483</v>
       </c>
       <c r="I2" s="2">
-        <v>58.3359</v>
+        <v>15.6384</v>
       </c>
       <c r="J2" s="2">
-        <v>39.6105</v>
+        <v>15.4569</v>
       </c>
       <c r="K2" s="2">
-        <v>214.2325</v>
+        <v>167.5051</v>
       </c>
       <c r="L2" s="2">
-        <v>185.49</v>
+        <v>183.5956</v>
       </c>
       <c r="M2" s="2">
-        <v>192.6254</v>
+        <v>188.1267</v>
       </c>
       <c r="N2" s="2">
-        <v>196.8474</v>
+        <v>88.4311</v>
       </c>
       <c r="O2" s="2">
-        <v>163.8592</v>
+        <v>148.4406</v>
       </c>
       <c r="P2" s="2">
-        <v>242.6128</v>
+        <v>241.3408</v>
       </c>
       <c r="Q2">
         <v>12.3096</v>
@@ -1409,28 +1409,28 @@
         <v>305.997325</v>
       </c>
       <c r="I3" s="2">
-        <v>89.6916</v>
+        <v>53.6897</v>
       </c>
       <c r="J3" s="2">
-        <v>117.483</v>
+        <v>111.2483</v>
       </c>
       <c r="K3" s="2">
-        <v>208.6148</v>
+        <v>204.545</v>
       </c>
       <c r="L3" s="2">
-        <v>187.1334</v>
+        <v>187.5023</v>
       </c>
       <c r="M3" s="2">
-        <v>196.2254</v>
+        <v>204.7895</v>
       </c>
       <c r="N3" s="2">
-        <v>192.6173</v>
+        <v>173.6435</v>
       </c>
       <c r="O3" s="2">
-        <v>168.0403</v>
+        <v>169.8263</v>
       </c>
       <c r="P3" s="2">
-        <v>247.1522</v>
+        <v>247.5051</v>
       </c>
       <c r="Q3">
         <v>60.7511</v>
@@ -1531,28 +1531,28 @@
         <v>301.453539</v>
       </c>
       <c r="I4" s="2">
-        <v>86.7906</v>
+        <v>89.7918</v>
       </c>
       <c r="J4" s="2">
-        <v>118.3045</v>
+        <v>130.4757</v>
       </c>
       <c r="K4" s="2">
-        <v>220.904</v>
+        <v>213.0886</v>
       </c>
       <c r="L4" s="2">
-        <v>177.3532</v>
+        <v>178.6604</v>
       </c>
       <c r="M4" s="2">
-        <v>203.9262</v>
+        <v>200.5828</v>
       </c>
       <c r="N4" s="2">
-        <v>195.7306</v>
+        <v>170.666</v>
       </c>
       <c r="O4" s="2">
-        <v>163.856</v>
+        <v>185.2839</v>
       </c>
       <c r="P4" s="2">
-        <v>230.6761</v>
+        <v>225.9039</v>
       </c>
       <c r="Q4">
         <v>67.5261</v>
@@ -1653,28 +1653,28 @@
         <v>302.271286</v>
       </c>
       <c r="I5" s="2">
-        <v>72.9033</v>
+        <v>73.1288</v>
       </c>
       <c r="J5" s="2">
-        <v>103.7565</v>
+        <v>112.3907</v>
       </c>
       <c r="K5" s="2">
-        <v>218.4437</v>
+        <v>218.0233</v>
       </c>
       <c r="L5" s="2">
-        <v>169.9728</v>
+        <v>170.4192</v>
       </c>
       <c r="M5" s="2">
-        <v>204.1447</v>
+        <v>199.3807</v>
       </c>
       <c r="N5" s="2">
-        <v>181.6774</v>
+        <v>195.7168</v>
       </c>
       <c r="O5" s="2">
-        <v>176.4669</v>
+        <v>185.6259</v>
       </c>
       <c r="P5" s="2">
-        <v>239.4609</v>
+        <v>240.1593</v>
       </c>
       <c r="Q5">
         <v>80.5642</v>
@@ -1775,28 +1775,28 @@
         <v>309.553722</v>
       </c>
       <c r="I6" s="2">
-        <v>98.1601</v>
+        <v>79.5788</v>
       </c>
       <c r="J6" s="2">
-        <v>107.3025</v>
+        <v>97.6225</v>
       </c>
       <c r="K6" s="2">
-        <v>203.7017</v>
+        <v>200.3006</v>
       </c>
       <c r="L6" s="2">
-        <v>169.4886</v>
+        <v>170.1078</v>
       </c>
       <c r="M6" s="2">
-        <v>210.222</v>
+        <v>202.8664</v>
       </c>
       <c r="N6" s="2">
-        <v>195.8979</v>
+        <v>195.6378</v>
       </c>
       <c r="O6" s="2">
-        <v>194.4644</v>
+        <v>186.3341</v>
       </c>
       <c r="P6" s="2">
-        <v>234.6573</v>
+        <v>234.8168</v>
       </c>
       <c r="Q6">
         <v>83.2281</v>
@@ -1897,28 +1897,28 @@
         <v>311.610255</v>
       </c>
       <c r="I7" s="2">
-        <v>102.4603</v>
+        <v>101.3819</v>
       </c>
       <c r="J7" s="2">
-        <v>124.9377</v>
+        <v>125.5667</v>
       </c>
       <c r="K7" s="2">
-        <v>216.3955</v>
+        <v>212.3171</v>
       </c>
       <c r="L7" s="2">
-        <v>170.7939</v>
+        <v>172.0571</v>
       </c>
       <c r="M7" s="2">
-        <v>208.4292</v>
+        <v>207.77</v>
       </c>
       <c r="N7" s="2">
-        <v>185.781</v>
+        <v>183.1149</v>
       </c>
       <c r="O7" s="2">
-        <v>187.0474</v>
+        <v>178.7086</v>
       </c>
       <c r="P7" s="2">
-        <v>226.9819</v>
+        <v>229.0279</v>
       </c>
       <c r="Q7">
         <v>91.2826</v>
@@ -2019,28 +2019,28 @@
         <v>308.597038</v>
       </c>
       <c r="I8" s="2">
-        <v>95.5417</v>
+        <v>116.0937</v>
       </c>
       <c r="J8" s="2">
-        <v>108.4957</v>
+        <v>107.9394</v>
       </c>
       <c r="K8" s="2">
-        <v>217.0158</v>
+        <v>221.2494</v>
       </c>
       <c r="L8" s="2">
-        <v>170.7976</v>
+        <v>171.8442</v>
       </c>
       <c r="M8" s="2">
-        <v>204.7023</v>
+        <v>206.7555</v>
       </c>
       <c r="N8" s="2">
-        <v>182.4424</v>
+        <v>182.4237</v>
       </c>
       <c r="O8" s="2">
-        <v>191.028</v>
+        <v>184.4398</v>
       </c>
       <c r="P8" s="2">
-        <v>241.8571</v>
+        <v>241.8409</v>
       </c>
       <c r="Q8">
         <v>59.7004</v>
@@ -2141,28 +2141,28 @@
         <v>309.235183</v>
       </c>
       <c r="I9" s="2">
-        <v>91.4641</v>
+        <v>84.1017</v>
       </c>
       <c r="J9" s="2">
-        <v>125.8943</v>
+        <v>125.1621</v>
       </c>
       <c r="K9" s="2">
-        <v>224.2798</v>
+        <v>224.0436</v>
       </c>
       <c r="L9" s="2">
-        <v>129.3864</v>
+        <v>128.927</v>
       </c>
       <c r="M9" s="2">
-        <v>213.9768</v>
+        <v>212.1525</v>
       </c>
       <c r="N9" s="2">
-        <v>194.907</v>
+        <v>195.8856</v>
       </c>
       <c r="O9" s="2">
-        <v>188.5137</v>
+        <v>180.3481</v>
       </c>
       <c r="P9" s="2">
-        <v>254.4872</v>
+        <v>254.8744</v>
       </c>
       <c r="Q9">
         <v>69.3298</v>
@@ -2263,28 +2263,28 @@
         <v>301.562364</v>
       </c>
       <c r="I10" s="2">
-        <v>59.8489</v>
+        <v>82.8619</v>
       </c>
       <c r="J10" s="2">
-        <v>131.241</v>
+        <v>129.3576</v>
       </c>
       <c r="K10" s="2">
-        <v>225.394</v>
+        <v>220.6656</v>
       </c>
       <c r="L10" s="2">
-        <v>148.3362</v>
+        <v>144.1543</v>
       </c>
       <c r="M10" s="2">
-        <v>209.545</v>
+        <v>205.8002</v>
       </c>
       <c r="N10" s="2">
-        <v>196.4311</v>
+        <v>196.2753</v>
       </c>
       <c r="O10" s="2">
-        <v>188.5968</v>
+        <v>189.2338</v>
       </c>
       <c r="P10" s="2">
-        <v>243.5548</v>
+        <v>243.5649</v>
       </c>
       <c r="Q10">
         <v>78.957</v>
@@ -2385,28 +2385,28 @@
         <v>293.751054</v>
       </c>
       <c r="I11" s="2">
-        <v>69.5026</v>
+        <v>67.6191</v>
       </c>
       <c r="J11" s="2">
-        <v>57.9828</v>
+        <v>58.3589</v>
       </c>
       <c r="K11" s="2">
-        <v>219.76</v>
+        <v>217.1276</v>
       </c>
       <c r="L11" s="2">
-        <v>173.6027</v>
+        <v>174.0208</v>
       </c>
       <c r="M11" s="2">
-        <v>208.3853</v>
+        <v>212.1957</v>
       </c>
       <c r="N11" s="2">
-        <v>196.8625</v>
+        <v>197.4796</v>
       </c>
       <c r="O11" s="2">
-        <v>190.1693</v>
+        <v>188.8613</v>
       </c>
       <c r="P11" s="2">
-        <v>241.6435</v>
+        <v>242.1546</v>
       </c>
       <c r="Q11">
         <v>84.1181</v>
@@ -2507,28 +2507,28 @@
         <v>315.253792</v>
       </c>
       <c r="I12" s="2">
-        <v>70.5092</v>
+        <v>105.3405</v>
       </c>
       <c r="J12" s="2">
-        <v>115.7577</v>
+        <v>110.3512</v>
       </c>
       <c r="K12" s="2">
-        <v>218.5821</v>
+        <v>218.0053</v>
       </c>
       <c r="L12" s="2">
-        <v>169.0127</v>
+        <v>171.9146</v>
       </c>
       <c r="M12" s="2">
-        <v>207.7626</v>
+        <v>209.697</v>
       </c>
       <c r="N12" s="2">
-        <v>185.9772</v>
+        <v>186.4689</v>
       </c>
       <c r="O12" s="2">
-        <v>182.7989</v>
+        <v>183.1182</v>
       </c>
       <c r="P12" s="2">
-        <v>237.1357</v>
+        <v>238.3175</v>
       </c>
       <c r="Q12">
         <v>91.0377</v>
@@ -2629,28 +2629,28 @@
         <v>314.291078</v>
       </c>
       <c r="I13" s="2">
-        <v>94.644</v>
+        <v>95.2731</v>
       </c>
       <c r="J13" s="2">
-        <v>128.933</v>
+        <v>110.4711</v>
       </c>
       <c r="K13" s="2">
-        <v>225.4623</v>
+        <v>219.411</v>
       </c>
       <c r="L13" s="2">
-        <v>161.5541</v>
+        <v>155.0771</v>
       </c>
       <c r="M13" s="2">
-        <v>207.7582</v>
+        <v>204.4904</v>
       </c>
       <c r="N13" s="2">
-        <v>190.2895</v>
+        <v>189.7184</v>
       </c>
       <c r="O13" s="2">
-        <v>165.0189</v>
+        <v>185.0891</v>
       </c>
       <c r="P13" s="2">
-        <v>242.652</v>
+        <v>243.0415</v>
       </c>
       <c r="Q13">
         <v>93.4134</v>
@@ -2751,28 +2751,28 @@
         <v>309.78244</v>
       </c>
       <c r="I14" s="2">
-        <v>87.7426</v>
+        <v>84.001</v>
       </c>
       <c r="J14" s="2">
-        <v>108.6545</v>
+        <v>110.2893</v>
       </c>
       <c r="K14" s="2">
-        <v>214.5262</v>
+        <v>225.1802</v>
       </c>
       <c r="L14" s="2">
-        <v>169.7434</v>
+        <v>168.4064</v>
       </c>
       <c r="M14" s="2">
-        <v>209.9918</v>
+        <v>208.7174</v>
       </c>
       <c r="N14" s="2">
-        <v>179.0311</v>
+        <v>178.4571</v>
       </c>
       <c r="O14" s="2">
-        <v>180.911</v>
+        <v>179.932</v>
       </c>
       <c r="P14" s="2">
-        <v>237.8518</v>
+        <v>238.0199</v>
       </c>
       <c r="Q14">
         <v>64.2172</v>
@@ -2873,28 +2873,28 @@
         <v>313.552453</v>
       </c>
       <c r="I15" s="2">
-        <v>66.3295</v>
+        <v>87.9373</v>
       </c>
       <c r="J15" s="2">
-        <v>128.1222</v>
+        <v>114.7252</v>
       </c>
       <c r="K15" s="2">
-        <v>221.1237</v>
+        <v>219.9189</v>
       </c>
       <c r="L15" s="2">
-        <v>158.9022</v>
+        <v>165.8817</v>
       </c>
       <c r="M15" s="2">
-        <v>210.331</v>
+        <v>204.9747</v>
       </c>
       <c r="N15" s="2">
-        <v>200.1856</v>
+        <v>201.2021</v>
       </c>
       <c r="O15" s="2">
-        <v>190.5425</v>
+        <v>190.1797</v>
       </c>
       <c r="P15" s="2">
-        <v>235.4897</v>
+        <v>235.4959</v>
       </c>
       <c r="Q15">
         <v>68.4821</v>
@@ -2995,28 +2995,28 @@
         <v>313.39886</v>
       </c>
       <c r="I16" s="2">
-        <v>80.0233</v>
+        <v>79.0552</v>
       </c>
       <c r="J16" s="2">
-        <v>133.5147</v>
+        <v>131.0892</v>
       </c>
       <c r="K16" s="2">
-        <v>215.9297</v>
+        <v>211.2043</v>
       </c>
       <c r="L16" s="2">
-        <v>173.3699</v>
+        <v>171.8392</v>
       </c>
       <c r="M16" s="2">
-        <v>212.9042</v>
+        <v>210.9144</v>
       </c>
       <c r="N16" s="2">
-        <v>198.4092</v>
+        <v>198.8211</v>
       </c>
       <c r="O16" s="2">
-        <v>197.7997</v>
+        <v>207.6756</v>
       </c>
       <c r="P16" s="2">
-        <v>243.6965</v>
+        <v>242.123</v>
       </c>
       <c r="Q16">
         <v>56.9286</v>
@@ -3117,28 +3117,28 @@
         <v>310.817889</v>
       </c>
       <c r="I17" s="2">
-        <v>45.2875</v>
+        <v>51.3263</v>
       </c>
       <c r="J17" s="2">
-        <v>124.2961</v>
+        <v>128.6606</v>
       </c>
       <c r="K17" s="2">
-        <v>213.1817</v>
+        <v>210.1515</v>
       </c>
       <c r="L17" s="2">
-        <v>170.3368</v>
+        <v>164.2344</v>
       </c>
       <c r="M17" s="2">
-        <v>209.7113</v>
+        <v>211.9447</v>
       </c>
       <c r="N17" s="2">
-        <v>190.8951</v>
+        <v>190.453</v>
       </c>
       <c r="O17" s="2">
-        <v>211.6773</v>
+        <v>209.4976</v>
       </c>
       <c r="P17" s="2">
-        <v>242.8389</v>
+        <v>243.197</v>
       </c>
       <c r="Q17">
         <v>61.4639</v>
@@ -3239,28 +3239,28 @@
         <v>316.899821</v>
       </c>
       <c r="I18" s="2">
-        <v>106.2877</v>
+        <v>88.8036</v>
       </c>
       <c r="J18" s="2">
-        <v>120.2466</v>
+        <v>116.3483</v>
       </c>
       <c r="K18" s="2">
-        <v>213.4491</v>
+        <v>220.9251</v>
       </c>
       <c r="L18" s="2">
-        <v>176.6587</v>
+        <v>176.5669</v>
       </c>
       <c r="M18" s="2">
-        <v>208.4444</v>
+        <v>208.1965</v>
       </c>
       <c r="N18" s="2">
-        <v>190.8119</v>
+        <v>190.2465</v>
       </c>
       <c r="O18" s="2">
-        <v>214.5262</v>
+        <v>207.8198</v>
       </c>
       <c r="P18" s="2">
-        <v>237.5127</v>
+        <v>237.524</v>
       </c>
       <c r="Q18">
         <v>105.818</v>
@@ -3361,28 +3361,28 @@
         <v>310.534085</v>
       </c>
       <c r="I19" s="2">
-        <v>80.2111</v>
+        <v>52.4848</v>
       </c>
       <c r="J19" s="2">
-        <v>138.1603</v>
+        <v>137.5284</v>
       </c>
       <c r="K19" s="2">
-        <v>217.779</v>
+        <v>223.4735</v>
       </c>
       <c r="L19" s="2">
-        <v>177.4911</v>
+        <v>177.1054</v>
       </c>
       <c r="M19" s="2">
-        <v>208.9186</v>
+        <v>207.3734</v>
       </c>
       <c r="N19" s="2">
-        <v>181.9446</v>
+        <v>181.6096</v>
       </c>
       <c r="O19" s="2">
-        <v>201.431</v>
+        <v>200.1936</v>
       </c>
       <c r="P19" s="2">
-        <v>252.6936</v>
+        <v>252.1421</v>
       </c>
       <c r="Q19">
         <v>48.4485</v>
@@ -3483,28 +3483,28 @@
         <v>284.313803</v>
       </c>
       <c r="I20" s="2">
-        <v>48.5497</v>
+        <v>47.753</v>
       </c>
       <c r="J20" s="2">
-        <v>144.9214</v>
+        <v>133.207</v>
       </c>
       <c r="K20" s="2">
-        <v>222.6401</v>
+        <v>221.9329</v>
       </c>
       <c r="L20" s="2">
-        <v>181.6635</v>
+        <v>178.7544</v>
       </c>
       <c r="M20" s="2">
-        <v>210.9505</v>
+        <v>214.5913</v>
       </c>
       <c r="N20" s="2">
-        <v>201.3776</v>
+        <v>201.5034</v>
       </c>
       <c r="O20" s="2">
-        <v>186.1733</v>
+        <v>187.0127</v>
       </c>
       <c r="P20" s="2">
-        <v>243.5119</v>
+        <v>243.3368</v>
       </c>
       <c r="Q20">
         <v>49.9648</v>
@@ -3605,28 +3605,28 @@
         <v>301.255163</v>
       </c>
       <c r="I21" s="2">
-        <v>64.5567</v>
+        <v>40.6631</v>
       </c>
       <c r="J21" s="2">
-        <v>131.8989</v>
+        <v>131.2733</v>
       </c>
       <c r="K21" s="2">
-        <v>220.7872</v>
+        <v>220.0365</v>
       </c>
       <c r="L21" s="2">
-        <v>183.5655</v>
+        <v>183.5351</v>
       </c>
       <c r="M21" s="2">
-        <v>203.6699</v>
+        <v>202.0333</v>
       </c>
       <c r="N21" s="2">
-        <v>202.4206</v>
+        <v>201.8274</v>
       </c>
       <c r="O21" s="2">
-        <v>190.1858</v>
+        <v>189.7611</v>
       </c>
       <c r="P21" s="2">
-        <v>232.0357</v>
+        <v>230.3057</v>
       </c>
       <c r="Q21">
         <v>87.1113</v>
@@ -3727,28 +3727,28 @@
         <v>300.754919</v>
       </c>
       <c r="I22" s="2">
-        <v>67.3444</v>
+        <v>77.111</v>
       </c>
       <c r="J22" s="2">
-        <v>60.6932</v>
+        <v>60.8211</v>
       </c>
       <c r="K22" s="2">
-        <v>219.7223</v>
+        <v>225.2443</v>
       </c>
       <c r="L22" s="2">
-        <v>181.9038</v>
+        <v>181.565</v>
       </c>
       <c r="M22" s="2">
-        <v>206.9242</v>
+        <v>207.1539</v>
       </c>
       <c r="N22" s="2">
-        <v>192.4337</v>
+        <v>192.9927</v>
       </c>
       <c r="O22" s="2">
-        <v>184.9103</v>
+        <v>185.5942</v>
       </c>
       <c r="P22" s="2">
-        <v>247.2195</v>
+        <v>244.5084</v>
       </c>
       <c r="Q22">
         <v>87.5363</v>
@@ -3849,28 +3849,28 @@
         <v>173.42476</v>
       </c>
       <c r="I23" s="2">
-        <v>72.3157</v>
+        <v>72.2251</v>
       </c>
       <c r="J23" s="2">
-        <v>57.9494</v>
+        <v>57.6053</v>
       </c>
       <c r="K23" s="2">
-        <v>221.5711</v>
+        <v>216.7274</v>
       </c>
       <c r="L23" s="2">
-        <v>179.9091</v>
+        <v>180.3924</v>
       </c>
       <c r="M23" s="2">
-        <v>209.4062</v>
+        <v>208.9159</v>
       </c>
       <c r="N23" s="2">
-        <v>190.9908</v>
+        <v>190.398</v>
       </c>
       <c r="O23" s="2">
-        <v>188.7346</v>
+        <v>189.1914</v>
       </c>
       <c r="P23" s="2">
-        <v>220.643</v>
+        <v>220.5473</v>
       </c>
       <c r="Q23">
         <v>83.7876</v>
@@ -3971,28 +3971,28 @@
         <v>83.829571</v>
       </c>
       <c r="I24" s="2">
-        <v>67.5393</v>
+        <v>67.095</v>
       </c>
       <c r="J24" s="2">
-        <v>100.4225</v>
+        <v>98.8138</v>
       </c>
       <c r="K24" s="2">
-        <v>217.8479</v>
+        <v>213.6769</v>
       </c>
       <c r="L24" s="2">
-        <v>177.4337</v>
+        <v>177.43</v>
       </c>
       <c r="M24" s="2">
-        <v>207.2377</v>
+        <v>210.995</v>
       </c>
       <c r="N24" s="2">
-        <v>176.9188</v>
+        <v>177.8628</v>
       </c>
       <c r="O24" s="2">
-        <v>207.0539</v>
+        <v>206.5076</v>
       </c>
       <c r="P24" s="2">
-        <v>240.6469</v>
+        <v>240.6362</v>
       </c>
       <c r="Q24">
         <v>86.1035</v>
@@ -4093,28 +4093,28 @@
         <v>297.116014</v>
       </c>
       <c r="I25" s="2">
-        <v>69.846</v>
+        <v>69.9336</v>
       </c>
       <c r="J25" s="2">
-        <v>67.3245</v>
+        <v>66.9162</v>
       </c>
       <c r="K25" s="2">
-        <v>214.0146</v>
+        <v>218.825</v>
       </c>
       <c r="L25" s="2">
-        <v>176.6725</v>
+        <v>179.278</v>
       </c>
       <c r="M25" s="2">
-        <v>210.6545</v>
+        <v>210.6458</v>
       </c>
       <c r="N25" s="2">
-        <v>181.7978</v>
+        <v>180.9526</v>
       </c>
       <c r="O25" s="2">
-        <v>211.2098</v>
+        <v>211.177</v>
       </c>
       <c r="P25" s="2">
-        <v>240.4411</v>
+        <v>241.8816</v>
       </c>
       <c r="Q25">
         <v>85.6507</v>
@@ -4215,28 +4215,28 @@
         <v>312.863027</v>
       </c>
       <c r="I26" s="2">
-        <v>97.3509</v>
+        <v>96.3493</v>
       </c>
       <c r="J26" s="2">
-        <v>56.9888</v>
+        <v>67.1108</v>
       </c>
       <c r="K26" s="2">
-        <v>209.7738</v>
+        <v>209.7869</v>
       </c>
       <c r="L26" s="2">
-        <v>179.9016</v>
+        <v>179.2573</v>
       </c>
       <c r="M26" s="2">
-        <v>208.9077</v>
+        <v>209.0398</v>
       </c>
       <c r="N26" s="2">
-        <v>201.6821</v>
+        <v>204.6934</v>
       </c>
       <c r="O26" s="2">
-        <v>210.7156</v>
+        <v>210.9102</v>
       </c>
       <c r="P26" s="2">
-        <v>235.4002</v>
+        <v>235.7648</v>
       </c>
       <c r="Q26">
         <v>86.3499</v>
@@ -4337,28 +4337,28 @@
         <v>300.521701</v>
       </c>
       <c r="I27" s="2">
-        <v>77.1136</v>
+        <v>75.625</v>
       </c>
       <c r="J27" s="2">
-        <v>94.0144</v>
+        <v>93.9218</v>
       </c>
       <c r="K27" s="2">
-        <v>214.1667</v>
+        <v>217.5032</v>
       </c>
       <c r="L27" s="2">
-        <v>179.5307</v>
+        <v>177.6542</v>
       </c>
       <c r="M27" s="2">
-        <v>207.924</v>
+        <v>207.6414</v>
       </c>
       <c r="N27" s="2">
-        <v>178.2222</v>
+        <v>176.9244</v>
       </c>
       <c r="O27" s="2">
-        <v>220.872</v>
+        <v>222.9302</v>
       </c>
       <c r="P27" s="2">
-        <v>241.7</v>
+        <v>241.3091</v>
       </c>
       <c r="Q27">
         <v>82.3401</v>
@@ -4459,28 +4459,28 @@
         <v>307.231339</v>
       </c>
       <c r="I28" s="2">
-        <v>74.2999</v>
+        <v>74.1614</v>
       </c>
       <c r="J28" s="2">
-        <v>116.5866</v>
+        <v>126.9743</v>
       </c>
       <c r="K28" s="2">
-        <v>214.6184</v>
+        <v>207.0848</v>
       </c>
       <c r="L28" s="2">
-        <v>176.8018</v>
+        <v>178.8288</v>
       </c>
       <c r="M28" s="2">
-        <v>212.7205</v>
+        <v>212.8112</v>
       </c>
       <c r="N28" s="2">
-        <v>192.7617</v>
+        <v>191.1188</v>
       </c>
       <c r="O28" s="2">
-        <v>202.8499</v>
+        <v>195.8524</v>
       </c>
       <c r="P28" s="2">
-        <v>226.7958</v>
+        <v>226.6788</v>
       </c>
       <c r="Q28">
         <v>90.4458</v>
@@ -4581,28 +4581,28 @@
         <v>316.273442</v>
       </c>
       <c r="I29" s="2">
-        <v>71.1587</v>
+        <v>71.2406</v>
       </c>
       <c r="J29" s="2">
-        <v>135.8836</v>
+        <v>136.4673</v>
       </c>
       <c r="K29" s="2">
-        <v>212.7759</v>
+        <v>221.3024</v>
       </c>
       <c r="L29" s="2">
-        <v>178.7694</v>
+        <v>178.9502</v>
       </c>
       <c r="M29" s="2">
-        <v>208.8937</v>
+        <v>208.865</v>
       </c>
       <c r="N29" s="2">
-        <v>177.2343</v>
+        <v>178.1916</v>
       </c>
       <c r="O29" s="2">
-        <v>204.8082</v>
+        <v>202.7999</v>
       </c>
       <c r="P29" s="2">
-        <v>236.9512</v>
+        <v>236.284</v>
       </c>
       <c r="Q29">
         <v>92.3167</v>
@@ -4700,25 +4700,25 @@
         <v>303.338132</v>
       </c>
       <c r="I30" s="2">
-        <v>101.7576</v>
+        <v>98.4496</v>
       </c>
       <c r="K30" s="2">
-        <v>213.07</v>
+        <v>205.4754</v>
       </c>
       <c r="L30" s="2">
-        <v>173.5991</v>
+        <v>175.2243</v>
       </c>
       <c r="M30" s="2">
-        <v>205.2583</v>
+        <v>208.44</v>
       </c>
       <c r="N30" s="2">
-        <v>176.785</v>
+        <v>176.3828</v>
       </c>
       <c r="O30" s="2">
-        <v>209.3213</v>
+        <v>209.6955</v>
       </c>
       <c r="P30" s="2">
-        <v>239.889</v>
+        <v>236.9497</v>
       </c>
       <c r="Q30">
         <v>92.7826</v>
@@ -4807,25 +4807,25 @@
         <v>307.810571</v>
       </c>
       <c r="I31" s="2">
-        <v>93.6238</v>
+        <v>95.3748</v>
       </c>
       <c r="K31" s="2">
-        <v>221.8302</v>
+        <v>220.7838</v>
       </c>
       <c r="L31" s="2">
-        <v>182.6968</v>
+        <v>182.9083</v>
       </c>
       <c r="M31" s="2">
-        <v>216.0894</v>
+        <v>215.8328</v>
       </c>
       <c r="N31" s="2">
-        <v>200.0619</v>
+        <v>199.7027</v>
       </c>
       <c r="O31" s="2">
-        <v>211.9571</v>
+        <v>212.8658</v>
       </c>
       <c r="P31" s="2">
-        <v>236.4357</v>
+        <v>236.2724</v>
       </c>
       <c r="Q31">
         <v>89.0232</v>
@@ -4914,25 +4914,25 @@
         <v>317.46315</v>
       </c>
       <c r="I32" s="2">
-        <v>114.711</v>
+        <v>114.3521</v>
       </c>
       <c r="K32" s="2">
-        <v>220.5353</v>
+        <v>221.5193</v>
       </c>
       <c r="L32" s="2">
-        <v>182.5162</v>
+        <v>182.8307</v>
       </c>
       <c r="M32" s="2">
-        <v>211.9956</v>
+        <v>212.513</v>
       </c>
       <c r="N32" s="2">
-        <v>192.4589</v>
+        <v>197.9099</v>
       </c>
       <c r="O32" s="2">
-        <v>214.9329</v>
+        <v>214.3262</v>
       </c>
       <c r="P32" s="2">
-        <v>235.3932</v>
+        <v>235.7236</v>
       </c>
       <c r="Q32">
         <v>95.8505</v>
@@ -5021,25 +5021,25 @@
         <v>305.801303</v>
       </c>
       <c r="I33" s="2">
-        <v>102.5176</v>
+        <v>102.5252</v>
       </c>
       <c r="K33" s="2">
-        <v>224.3738</v>
+        <v>220.0087</v>
       </c>
       <c r="L33" s="2">
-        <v>178.7317</v>
+        <v>182.738</v>
       </c>
       <c r="M33" s="2">
-        <v>210.8605</v>
+        <v>210.9959</v>
       </c>
       <c r="N33" s="2">
-        <v>200.6327</v>
+        <v>196.8711</v>
       </c>
       <c r="O33" s="2">
-        <v>213.9393</v>
+        <v>214.5027</v>
       </c>
       <c r="P33" s="2">
-        <v>230.8689</v>
+        <v>230.3753</v>
       </c>
       <c r="Q33">
         <v>94.6894</v>
@@ -5128,25 +5128,25 @@
         <v>309.295661</v>
       </c>
       <c r="I34" s="2">
-        <v>97.5426</v>
+        <v>79.8833</v>
       </c>
       <c r="K34" s="2">
-        <v>216.9855</v>
+        <v>216.6257</v>
       </c>
       <c r="L34" s="2">
-        <v>185.3419</v>
+        <v>184.9893</v>
       </c>
       <c r="M34" s="2">
-        <v>213.7922</v>
+        <v>210.0852</v>
       </c>
       <c r="N34" s="2">
-        <v>201.9212</v>
+        <v>202.8561</v>
       </c>
       <c r="O34" s="2">
-        <v>214.5346</v>
+        <v>214.9807</v>
       </c>
       <c r="P34" s="2">
-        <v>241.0024</v>
+        <v>242.2736</v>
       </c>
       <c r="Q34">
         <v>95.1467</v>
@@ -5235,25 +5235,25 @@
         <v>315.945227</v>
       </c>
       <c r="I35" s="2">
-        <v>77.0374</v>
+        <v>75.7243</v>
       </c>
       <c r="K35" s="2">
-        <v>216.4571</v>
+        <v>220.7065</v>
       </c>
       <c r="L35" s="2">
-        <v>181.1801</v>
+        <v>181.1967</v>
       </c>
       <c r="M35" s="2">
-        <v>211.9863</v>
+        <v>212.2255</v>
       </c>
       <c r="N35" s="2">
-        <v>195.2456</v>
+        <v>193.1116</v>
       </c>
       <c r="O35" s="2">
-        <v>213.9228</v>
+        <v>215.0203</v>
       </c>
       <c r="P35" s="2">
-        <v>244.5346</v>
+        <v>244.7368</v>
       </c>
       <c r="Q35">
         <v>95.9771</v>
@@ -5342,25 +5342,25 @@
         <v>315.977923</v>
       </c>
       <c r="I36" s="2">
-        <v>97.5275</v>
+        <v>96.233</v>
       </c>
       <c r="K36" s="2">
-        <v>212.8458</v>
+        <v>212.7391</v>
       </c>
       <c r="L36" s="2">
-        <v>184.6036</v>
+        <v>184.6765</v>
       </c>
       <c r="M36" s="2">
-        <v>211.6046</v>
+        <v>211.8483</v>
       </c>
       <c r="N36" s="2">
-        <v>182.4744</v>
+        <v>185.3377</v>
       </c>
       <c r="O36" s="2">
-        <v>211.2004</v>
+        <v>211.1375</v>
       </c>
       <c r="P36" s="2">
-        <v>243.1404</v>
+        <v>243.6747</v>
       </c>
       <c r="Q36">
         <v>92.7708</v>
@@ -5449,25 +5449,25 @@
         <v>312.268356</v>
       </c>
       <c r="I37" s="2">
-        <v>105.9332</v>
+        <v>138.9115</v>
       </c>
       <c r="K37" s="2">
-        <v>222.288</v>
+        <v>218.9404</v>
       </c>
       <c r="L37" s="2">
-        <v>179.5142</v>
+        <v>179.438</v>
       </c>
       <c r="M37" s="2">
-        <v>210.3886</v>
+        <v>208.4844</v>
       </c>
       <c r="N37" s="2">
-        <v>176.6281</v>
+        <v>203.9677</v>
       </c>
       <c r="O37" s="2">
-        <v>218.1338</v>
+        <v>218.1661</v>
       </c>
       <c r="P37" s="2">
-        <v>242.5559</v>
+        <v>242.5571</v>
       </c>
       <c r="Q37">
         <v>93.8513</v>
@@ -5556,25 +5556,25 @@
         <v>297.447866</v>
       </c>
       <c r="I38" s="2">
-        <v>105.8482</v>
+        <v>104.6144</v>
       </c>
       <c r="K38" s="2">
-        <v>214.1664</v>
+        <v>212.5855</v>
       </c>
       <c r="L38" s="2">
-        <v>175.3495</v>
+        <v>175.5627</v>
       </c>
       <c r="M38" s="2">
-        <v>213.3341</v>
+        <v>213.275</v>
       </c>
       <c r="N38" s="2">
-        <v>202.4806</v>
+        <v>204.7483</v>
       </c>
       <c r="O38" s="2">
-        <v>206.8673</v>
+        <v>213.8276</v>
       </c>
       <c r="P38" s="2">
-        <v>241.9397</v>
+        <v>241.9508</v>
       </c>
       <c r="Q38">
         <v>96.664</v>
@@ -5663,25 +5663,25 @@
         <v>256.318123</v>
       </c>
       <c r="I39" s="2">
-        <v>80.8865</v>
+        <v>80.6638</v>
       </c>
       <c r="K39" s="2">
-        <v>212.728</v>
+        <v>209.3261</v>
       </c>
       <c r="L39" s="2">
-        <v>180.0816</v>
+        <v>179.8754</v>
       </c>
       <c r="M39" s="2">
-        <v>210.8904</v>
+        <v>212.5796</v>
       </c>
       <c r="N39" s="2">
-        <v>204.5163</v>
+        <v>203.8521</v>
       </c>
       <c r="O39" s="2">
-        <v>177.3348</v>
+        <v>185.1563</v>
       </c>
       <c r="P39" s="2">
-        <v>220.2045</v>
+        <v>221.0972</v>
       </c>
       <c r="Q39">
         <v>96.3514</v>
@@ -5770,25 +5770,25 @@
         <v>295.293928</v>
       </c>
       <c r="I40" s="2">
-        <v>106.0735</v>
+        <v>104.6738</v>
       </c>
       <c r="K40" s="2">
-        <v>221.5393</v>
+        <v>221.0526</v>
       </c>
       <c r="L40" s="2">
-        <v>180.6809</v>
+        <v>180.4428</v>
       </c>
       <c r="M40" s="2">
-        <v>201.6226</v>
+        <v>203.1754</v>
       </c>
       <c r="N40" s="2">
-        <v>206.361</v>
+        <v>204.914</v>
       </c>
       <c r="O40" s="2">
-        <v>207.2593</v>
+        <v>214.8529</v>
       </c>
       <c r="P40" s="2">
-        <v>245.7415</v>
+        <v>245.57</v>
       </c>
       <c r="Q40">
         <v>95.9712</v>
@@ -5877,25 +5877,25 @@
         <v>83.404526</v>
       </c>
       <c r="I41" s="2">
-        <v>104.6733</v>
+        <v>104.0348</v>
       </c>
       <c r="K41" s="2">
-        <v>213.6519</v>
+        <v>210.3976</v>
       </c>
       <c r="L41" s="2">
-        <v>180.7527</v>
+        <v>180.9687</v>
       </c>
       <c r="M41" s="2">
-        <v>207.9306</v>
+        <v>204.7798</v>
       </c>
       <c r="N41" s="2">
-        <v>202.4762</v>
+        <v>175.3564</v>
       </c>
       <c r="O41" s="2">
-        <v>201.8317</v>
+        <v>200.4423</v>
       </c>
       <c r="P41" s="2">
-        <v>242.0887</v>
+        <v>241.8848</v>
       </c>
       <c r="Q41">
         <v>94.2037</v>
@@ -5984,25 +5984,25 @@
         <v>306.054721</v>
       </c>
       <c r="I42" s="2">
-        <v>112.8959</v>
+        <v>111.8418</v>
       </c>
       <c r="K42" s="2">
-        <v>214.6565</v>
+        <v>218.6244</v>
       </c>
       <c r="L42" s="2">
-        <v>179.586</v>
+        <v>179.493</v>
       </c>
       <c r="M42" s="2">
-        <v>200.3888</v>
+        <v>207.0753</v>
       </c>
       <c r="N42" s="2">
-        <v>178.8201</v>
+        <v>177.9744</v>
       </c>
       <c r="O42" s="2">
-        <v>203.9476</v>
+        <v>210.653</v>
       </c>
       <c r="P42" s="2">
-        <v>241.3002</v>
+        <v>240.7746</v>
       </c>
       <c r="Q42">
         <v>95.1072</v>
@@ -6091,25 +6091,25 @@
         <v>317.574708</v>
       </c>
       <c r="I43" s="2">
-        <v>101.1604</v>
+        <v>102.0168</v>
       </c>
       <c r="K43" s="2">
-        <v>215.3519</v>
+        <v>215.7842</v>
       </c>
       <c r="L43" s="2">
-        <v>179.0455</v>
+        <v>174.0633</v>
       </c>
       <c r="M43" s="2">
-        <v>200.9565</v>
+        <v>205.1002</v>
       </c>
       <c r="N43" s="2">
-        <v>205.7943</v>
+        <v>205.9438</v>
       </c>
       <c r="O43" s="2">
-        <v>218.33</v>
+        <v>206.0453</v>
       </c>
       <c r="P43" s="2">
-        <v>240.3082</v>
+        <v>240.1438</v>
       </c>
       <c r="Q43">
         <v>92.4195</v>
@@ -6198,25 +6198,25 @@
         <v>314.106164</v>
       </c>
       <c r="I44" s="2">
-        <v>109.7613</v>
+        <v>110.3797</v>
       </c>
       <c r="K44" s="2">
-        <v>215.9163</v>
+        <v>215.3918</v>
       </c>
       <c r="L44" s="2">
-        <v>179.0946</v>
+        <v>180.4068</v>
       </c>
       <c r="M44" s="2">
-        <v>206.217</v>
+        <v>206.2532</v>
       </c>
       <c r="N44" s="2">
-        <v>204.9524</v>
+        <v>177.1876</v>
       </c>
       <c r="O44" s="2">
-        <v>218.3217</v>
+        <v>218.8583</v>
       </c>
       <c r="P44" s="2">
-        <v>247.4737</v>
+        <v>245.6351</v>
       </c>
       <c r="Q44">
         <v>97.4567</v>
@@ -6305,25 +6305,25 @@
         <v>297.185241</v>
       </c>
       <c r="I45" s="2">
-        <v>105.0459</v>
+        <v>105.157</v>
       </c>
       <c r="K45" s="2">
-        <v>217.9711</v>
+        <v>205.0662</v>
       </c>
       <c r="L45" s="2">
-        <v>174.7994</v>
+        <v>176.015</v>
       </c>
       <c r="M45" s="2">
-        <v>207.8077</v>
+        <v>207.6389</v>
       </c>
       <c r="N45" s="2">
-        <v>179.927</v>
+        <v>178.9236</v>
       </c>
       <c r="O45" s="2">
-        <v>171.437</v>
+        <v>167.7978</v>
       </c>
       <c r="P45" s="2">
-        <v>244.7875</v>
+        <v>245.7151</v>
       </c>
       <c r="Q45">
         <v>98.4968</v>
@@ -6412,25 +6412,25 @@
         <v>311.308103</v>
       </c>
       <c r="I46" s="2">
-        <v>99.6853</v>
+        <v>81.9646</v>
       </c>
       <c r="K46" s="2">
-        <v>220.8039</v>
+        <v>212.4282</v>
       </c>
       <c r="L46" s="2">
-        <v>180.8408</v>
+        <v>180.8052</v>
       </c>
       <c r="M46" s="2">
-        <v>212.5769</v>
+        <v>211.1567</v>
       </c>
       <c r="N46" s="2">
-        <v>168.3132</v>
+        <v>168.5616</v>
       </c>
       <c r="O46" s="2">
-        <v>180.2677</v>
+        <v>165.5409</v>
       </c>
       <c r="P46" s="2">
-        <v>244.7518</v>
+        <v>244.934</v>
       </c>
       <c r="Q46">
         <v>97.8617</v>
@@ -6519,25 +6519,25 @@
         <v>313.162199</v>
       </c>
       <c r="I47" s="2">
-        <v>81.3834</v>
+        <v>82.1191</v>
       </c>
       <c r="K47" s="2">
-        <v>216.1938</v>
+        <v>217.2839</v>
       </c>
       <c r="L47" s="2">
-        <v>182.2271</v>
+        <v>181.9121</v>
       </c>
       <c r="M47" s="2">
-        <v>206.9473</v>
+        <v>207.4068</v>
       </c>
       <c r="N47" s="2">
-        <v>190.8555</v>
+        <v>190.3382</v>
       </c>
       <c r="O47" s="2">
-        <v>181.5992</v>
+        <v>165.8875</v>
       </c>
       <c r="P47" s="2">
-        <v>232.1381</v>
+        <v>230.2153</v>
       </c>
       <c r="Q47">
         <v>93.057</v>
@@ -6626,25 +6626,25 @@
         <v>234.719756</v>
       </c>
       <c r="I48" s="2">
-        <v>74.6357</v>
+        <v>74.9946</v>
       </c>
       <c r="K48" s="2">
-        <v>222.4702</v>
+        <v>221.6727</v>
       </c>
       <c r="L48" s="2">
-        <v>180.2853</v>
+        <v>180.7109</v>
       </c>
       <c r="M48" s="2">
-        <v>205.8128</v>
+        <v>207.2665</v>
       </c>
       <c r="N48" s="2">
-        <v>196.9386</v>
+        <v>196.8437</v>
       </c>
       <c r="O48" s="2">
-        <v>91.2954</v>
+        <v>92.804</v>
       </c>
       <c r="P48" s="2">
-        <v>222.2923</v>
+        <v>222.1362</v>
       </c>
       <c r="Q48">
         <v>96.2825</v>
@@ -6733,25 +6733,25 @@
         <v>300.323418</v>
       </c>
       <c r="I49" s="2">
-        <v>80.7339</v>
+        <v>68.1358</v>
       </c>
       <c r="K49" s="2">
-        <v>221.9591</v>
+        <v>217.809</v>
       </c>
       <c r="L49" s="2">
-        <v>178.905</v>
+        <v>178.5809</v>
       </c>
       <c r="M49" s="2">
-        <v>208.5799</v>
+        <v>208.2282</v>
       </c>
       <c r="N49" s="2">
-        <v>197.5778</v>
+        <v>198.0253</v>
       </c>
       <c r="O49" s="2">
-        <v>142.3806</v>
+        <v>141.4963</v>
       </c>
       <c r="P49" s="2">
-        <v>242.0584</v>
+        <v>242.0634</v>
       </c>
       <c r="Q49">
         <v>100.807</v>
@@ -6840,25 +6840,25 @@
         <v>287.439528</v>
       </c>
       <c r="I50" s="2">
-        <v>122.5012</v>
+        <v>119.4626</v>
       </c>
       <c r="K50" s="2">
-        <v>217.212</v>
+        <v>218.3213</v>
       </c>
       <c r="L50" s="2">
-        <v>180.242</v>
+        <v>176.6055</v>
       </c>
       <c r="M50" s="2">
-        <v>203.787</v>
+        <v>203.652</v>
       </c>
       <c r="N50" s="2">
-        <v>197.4911</v>
+        <v>197.7943</v>
       </c>
       <c r="O50" s="2">
-        <v>108.8878</v>
+        <v>108.3608</v>
       </c>
       <c r="P50" s="2">
-        <v>232.0281</v>
+        <v>232.0265</v>
       </c>
       <c r="Q50">
         <v>52.9551</v>
@@ -6947,25 +6947,25 @@
         <v>304.02911</v>
       </c>
       <c r="I51" s="2">
-        <v>77.157</v>
+        <v>76.856</v>
       </c>
       <c r="K51" s="2">
-        <v>208.889</v>
+        <v>204.2589</v>
       </c>
       <c r="L51" s="2">
-        <v>184.7502</v>
+        <v>184.6941</v>
       </c>
       <c r="M51" s="2">
-        <v>203.4201</v>
+        <v>203.4783</v>
       </c>
       <c r="N51" s="2">
-        <v>186.6209</v>
+        <v>185.3026</v>
       </c>
       <c r="O51" s="2">
-        <v>144.6889</v>
+        <v>143.594</v>
       </c>
       <c r="P51" s="2">
-        <v>241.3229</v>
+        <v>241.14</v>
       </c>
       <c r="Q51">
         <v>61.2706</v>
@@ -7054,25 +7054,25 @@
         <v>301.909831</v>
       </c>
       <c r="I52" s="2">
-        <v>123.2028</v>
+        <v>122.8262</v>
       </c>
       <c r="K52" s="2">
-        <v>213.3432</v>
+        <v>213.1532</v>
       </c>
       <c r="L52" s="2">
-        <v>184.929</v>
+        <v>184.9378</v>
       </c>
       <c r="M52" s="2">
-        <v>207.0353</v>
+        <v>206.8019</v>
       </c>
       <c r="N52" s="2">
-        <v>185.8478</v>
+        <v>185.6892</v>
       </c>
       <c r="O52" s="2">
-        <v>155.4717</v>
+        <v>157.4136</v>
       </c>
       <c r="P52" s="2">
-        <v>236.7278</v>
+        <v>236.9084</v>
       </c>
       <c r="Q52">
         <v>54.1465</v>
@@ -7161,25 +7161,25 @@
         <v>306.316911</v>
       </c>
       <c r="I53" s="2">
-        <v>36.6824</v>
+        <v>46.8363</v>
       </c>
       <c r="K53" s="2">
-        <v>225.7993</v>
+        <v>221.913</v>
       </c>
       <c r="L53" s="2">
-        <v>183.0275</v>
+        <v>183.2004</v>
       </c>
       <c r="M53" s="2">
-        <v>202.5097</v>
+        <v>202.9098</v>
       </c>
       <c r="N53" s="2">
-        <v>186.7775</v>
+        <v>187.1012</v>
       </c>
       <c r="O53" s="2">
-        <v>165.9174</v>
+        <v>166.0923</v>
       </c>
       <c r="P53" s="2">
-        <v>243.751</v>
+        <v>243.5831</v>
       </c>
       <c r="Q53">
         <v>53.5994</v>
@@ -7268,25 +7268,25 @@
         <v>310.800819</v>
       </c>
       <c r="I54" s="2">
-        <v>69.2378</v>
+        <v>68.8097</v>
       </c>
       <c r="K54" s="2">
-        <v>223.7478</v>
+        <v>219.4039</v>
       </c>
       <c r="L54" s="2">
-        <v>184.5206</v>
+        <v>184.4586</v>
       </c>
       <c r="M54" s="2">
-        <v>209.026</v>
+        <v>207.4496</v>
       </c>
       <c r="N54" s="2">
-        <v>204.6415</v>
+        <v>204.0669</v>
       </c>
       <c r="O54" s="2">
-        <v>207.7671</v>
+        <v>205.7926</v>
       </c>
       <c r="P54" s="2">
-        <v>222.0141</v>
+        <v>222.0153</v>
       </c>
       <c r="Q54">
         <v>95.2216</v>
@@ -7375,25 +7375,25 @@
         <v>305.858159</v>
       </c>
       <c r="I55" s="2">
-        <v>83.3419</v>
+        <v>82.2299</v>
       </c>
       <c r="K55" s="2">
-        <v>223.6742</v>
+        <v>228.6261</v>
       </c>
       <c r="L55" s="2">
-        <v>179.1641</v>
+        <v>185.221</v>
       </c>
       <c r="M55" s="2">
-        <v>202.992</v>
+        <v>202.5801</v>
       </c>
       <c r="N55" s="2">
-        <v>198.6176</v>
+        <v>198.7902</v>
       </c>
       <c r="O55" s="2">
-        <v>114.5942</v>
+        <v>115.4596</v>
       </c>
       <c r="P55" s="2">
-        <v>246.1367</v>
+        <v>243.9423</v>
       </c>
       <c r="Q55">
         <v>98.5071</v>
@@ -7482,25 +7482,25 @@
         <v>317.512363</v>
       </c>
       <c r="I56" s="2">
-        <v>111.6965</v>
+        <v>111.9081</v>
       </c>
       <c r="K56" s="2">
-        <v>219.9727</v>
+        <v>228.9989</v>
       </c>
       <c r="L56" s="2">
-        <v>185.2534</v>
+        <v>186.1554</v>
       </c>
       <c r="M56" s="2">
-        <v>207.8158</v>
+        <v>206.781</v>
       </c>
       <c r="N56" s="2">
-        <v>200.0476</v>
+        <v>200.2352</v>
       </c>
       <c r="O56" s="2">
-        <v>107.9079</v>
+        <v>107.3168</v>
       </c>
       <c r="P56" s="2">
-        <v>242.3783</v>
+        <v>242.3814</v>
       </c>
       <c r="Q56">
         <v>97.5244</v>
@@ -7589,25 +7589,25 @@
         <v>302.764906</v>
       </c>
       <c r="I57" s="2">
-        <v>72.8768</v>
+        <v>73.5312</v>
       </c>
       <c r="K57" s="2">
-        <v>225.6228</v>
+        <v>220.5947</v>
       </c>
       <c r="L57" s="2">
-        <v>185.6686</v>
+        <v>185.7485</v>
       </c>
       <c r="M57" s="2">
-        <v>209.2034</v>
+        <v>210.6174</v>
       </c>
       <c r="N57" s="2">
-        <v>187.0193</v>
+        <v>163.1472</v>
       </c>
       <c r="O57" s="2">
-        <v>128.7772</v>
+        <v>128.8673</v>
       </c>
       <c r="P57" s="2">
-        <v>236.0387</v>
+        <v>236.3859</v>
       </c>
       <c r="Q57">
         <v>101.931</v>
@@ -7696,25 +7696,25 @@
         <v>305.46887</v>
       </c>
       <c r="I58" s="2">
-        <v>99.4382</v>
+        <v>97.3652</v>
       </c>
       <c r="K58" s="2">
-        <v>220.0396</v>
+        <v>220.7512</v>
       </c>
       <c r="L58" s="2">
-        <v>186.2222</v>
+        <v>186.0318</v>
       </c>
       <c r="M58" s="2">
-        <v>207.9035</v>
+        <v>209.409</v>
       </c>
       <c r="N58" s="2">
-        <v>185.5731</v>
+        <v>185.5723</v>
       </c>
       <c r="O58" s="2">
-        <v>147.8925</v>
+        <v>148.0047</v>
       </c>
       <c r="P58" s="2">
-        <v>246.2247</v>
+        <v>245.3209</v>
       </c>
       <c r="Q58">
         <v>102.196</v>
@@ -7803,25 +7803,25 @@
         <v>311.812323</v>
       </c>
       <c r="I59" s="2">
-        <v>104.9754</v>
+        <v>105.9709</v>
       </c>
       <c r="K59" s="2">
-        <v>225.1169</v>
+        <v>220.3877</v>
       </c>
       <c r="L59" s="2">
-        <v>183.1164</v>
+        <v>183.9063</v>
       </c>
       <c r="M59" s="2">
-        <v>208.429</v>
+        <v>207.0204</v>
       </c>
       <c r="N59" s="2">
-        <v>201.2486</v>
+        <v>185.6819</v>
       </c>
       <c r="O59" s="2">
-        <v>129.0712</v>
+        <v>130.9762</v>
       </c>
       <c r="P59" s="2">
-        <v>242.8319</v>
+        <v>244.6256</v>
       </c>
       <c r="Q59">
         <v>113.857</v>
@@ -7910,25 +7910,25 @@
         <v>301.077811</v>
       </c>
       <c r="I60" s="2">
-        <v>72.9241</v>
+        <v>71.184</v>
       </c>
       <c r="K60" s="2">
-        <v>215.7691</v>
+        <v>214.9255</v>
       </c>
       <c r="L60" s="2">
-        <v>183.234</v>
+        <v>183.1772</v>
       </c>
       <c r="M60" s="2">
-        <v>204.154</v>
+        <v>204.0165</v>
       </c>
       <c r="N60" s="2">
-        <v>201.0426</v>
+        <v>201.2536</v>
       </c>
       <c r="O60" s="2">
-        <v>115.799</v>
+        <v>115.0358</v>
       </c>
       <c r="P60" s="2">
-        <v>252.0693</v>
+        <v>252.6574</v>
       </c>
       <c r="Q60">
         <v>106.654</v>
@@ -8017,25 +8017,25 @@
         <v>287.598543</v>
       </c>
       <c r="I61" s="2">
-        <v>83.1868</v>
+        <v>84.7494</v>
       </c>
       <c r="K61" s="2">
-        <v>225.9501</v>
+        <v>221.4414</v>
       </c>
       <c r="L61" s="2">
-        <v>185.3363</v>
+        <v>185.5542</v>
       </c>
       <c r="M61" s="2">
-        <v>212.2812</v>
+        <v>210.5147</v>
       </c>
       <c r="N61" s="2">
-        <v>201.4538</v>
+        <v>202.1506</v>
       </c>
       <c r="O61" s="2">
-        <v>131.5667</v>
+        <v>130.6362</v>
       </c>
       <c r="P61" s="2">
-        <v>242.395</v>
+        <v>240.6466</v>
       </c>
       <c r="Q61">
         <v>110.36</v>
@@ -8124,25 +8124,25 @@
         <v>306.918894</v>
       </c>
       <c r="I62" s="2">
-        <v>70.6696</v>
+        <v>70.6629</v>
       </c>
       <c r="K62" s="2">
-        <v>230.534</v>
+        <v>222.4585</v>
       </c>
       <c r="L62" s="2">
-        <v>185.8992</v>
+        <v>185.8095</v>
       </c>
       <c r="M62" s="2">
-        <v>205.1124</v>
+        <v>205.0353</v>
       </c>
       <c r="N62" s="2">
-        <v>188.7203</v>
+        <v>190.0038</v>
       </c>
       <c r="O62" s="2">
-        <v>116.191</v>
+        <v>117.3644</v>
       </c>
       <c r="P62" s="2">
-        <v>235.81</v>
+        <v>237.8429</v>
       </c>
       <c r="Q62">
         <v>109.59</v>
@@ -8231,25 +8231,25 @@
         <v>296.747827</v>
       </c>
       <c r="I63" s="2">
-        <v>100.2377</v>
+        <v>100.8682</v>
       </c>
       <c r="K63" s="2">
-        <v>224.2197</v>
+        <v>224.7763</v>
       </c>
       <c r="L63" s="2">
-        <v>181.1855</v>
+        <v>181.9363</v>
       </c>
       <c r="M63" s="2">
-        <v>207.7956</v>
+        <v>208.0287</v>
       </c>
       <c r="N63" s="2">
-        <v>189.5338</v>
+        <v>175.6024</v>
       </c>
       <c r="O63" s="2">
-        <v>129.5451</v>
+        <v>130.3945</v>
       </c>
       <c r="P63" s="2">
-        <v>236.7157</v>
+        <v>237.0726</v>
       </c>
       <c r="Q63">
         <v>110.906</v>
@@ -8338,25 +8338,25 @@
         <v>308.693673</v>
       </c>
       <c r="I64" s="2">
-        <v>98.3337</v>
+        <v>97.7191</v>
       </c>
       <c r="K64" s="2">
-        <v>219.3271</v>
+        <v>219.7185</v>
       </c>
       <c r="L64" s="2">
-        <v>181.9853</v>
+        <v>181.8436</v>
       </c>
       <c r="M64" s="2">
-        <v>210.9576</v>
+        <v>212.3649</v>
       </c>
       <c r="N64" s="2">
-        <v>199.0979</v>
+        <v>198.6589</v>
       </c>
       <c r="O64" s="2">
-        <v>152.5519</v>
+        <v>150.885</v>
       </c>
       <c r="P64" s="2">
-        <v>243.8759</v>
+        <v>244.0492</v>
       </c>
       <c r="Q64">
         <v>108.749</v>
@@ -8445,25 +8445,25 @@
         <v>303.123142</v>
       </c>
       <c r="I65" s="2">
-        <v>70.8257</v>
+        <v>80.1158</v>
       </c>
       <c r="K65" s="2">
-        <v>220.7695</v>
+        <v>216.2007</v>
       </c>
       <c r="L65" s="2">
-        <v>182.1284</v>
+        <v>183.5786</v>
       </c>
       <c r="M65" s="2">
-        <v>210.7708</v>
+        <v>209.5315</v>
       </c>
       <c r="N65" s="2">
-        <v>204.5508</v>
+        <v>176.9047</v>
       </c>
       <c r="O65" s="2">
-        <v>133.3499</v>
+        <v>133.5952</v>
       </c>
       <c r="P65" s="2">
-        <v>238.8249</v>
+        <v>238.8464</v>
       </c>
       <c r="Q65">
         <v>111.553</v>
@@ -8552,25 +8552,25 @@
         <v>309.75339</v>
       </c>
       <c r="I66" s="2">
-        <v>87.758</v>
+        <v>86.7829</v>
       </c>
       <c r="K66" s="2">
-        <v>218.5474</v>
+        <v>219.7824</v>
       </c>
       <c r="L66" s="2">
-        <v>182.9742</v>
+        <v>182.2578</v>
       </c>
       <c r="M66" s="2">
-        <v>218.1408</v>
+        <v>214.584</v>
       </c>
       <c r="N66" s="2">
-        <v>204.0641</v>
+        <v>178.2042</v>
       </c>
       <c r="O66" s="2">
-        <v>147.0114</v>
+        <v>147.5354</v>
       </c>
       <c r="P66" s="2">
-        <v>237.5001</v>
+        <v>236.3038</v>
       </c>
       <c r="Q66">
         <v>101.37</v>
@@ -8659,25 +8659,25 @@
         <v>309.849223</v>
       </c>
       <c r="I67" s="2">
-        <v>109.246</v>
+        <v>108.9416</v>
       </c>
       <c r="K67" s="2">
-        <v>223.3834</v>
+        <v>222.7676</v>
       </c>
       <c r="L67" s="2">
-        <v>184.4495</v>
+        <v>184.5845</v>
       </c>
       <c r="M67" s="2">
-        <v>215.2624</v>
+        <v>215.3354</v>
       </c>
       <c r="N67" s="2">
-        <v>205.5936</v>
+        <v>177.5942</v>
       </c>
       <c r="O67" s="2">
-        <v>133.9244</v>
+        <v>132.7512</v>
       </c>
       <c r="P67" s="2">
-        <v>237.772</v>
+        <v>235.8878</v>
       </c>
       <c r="Q67">
         <v>109.79</v>
@@ -8766,25 +8766,25 @@
         <v>309.847053</v>
       </c>
       <c r="I68" s="2">
-        <v>108.2381</v>
+        <v>108.6581</v>
       </c>
       <c r="K68" s="2">
-        <v>215.9641</v>
+        <v>216.1504</v>
       </c>
       <c r="L68" s="2">
-        <v>184.9775</v>
+        <v>184.852</v>
       </c>
       <c r="M68" s="2">
-        <v>212.8883</v>
+        <v>215.6995</v>
       </c>
       <c r="N68" s="2">
-        <v>205.3562</v>
+        <v>178.2472</v>
       </c>
       <c r="O68" s="2">
-        <v>152.9843</v>
+        <v>153.1925</v>
       </c>
       <c r="P68" s="2">
-        <v>247.2469</v>
+        <v>246.5156</v>
       </c>
       <c r="Q68">
         <v>117.862</v>
@@ -8873,25 +8873,25 @@
         <v>312.466576</v>
       </c>
       <c r="I69" s="2">
-        <v>107.7796</v>
+        <v>107.1492</v>
       </c>
       <c r="K69" s="2">
-        <v>226.5103</v>
+        <v>226.1646</v>
       </c>
       <c r="L69" s="2">
-        <v>182.0545</v>
+        <v>182.7733</v>
       </c>
       <c r="M69" s="2">
-        <v>213.7384</v>
+        <v>214.1479</v>
       </c>
       <c r="N69" s="2">
-        <v>191.0299</v>
+        <v>178.2631</v>
       </c>
       <c r="O69" s="2">
-        <v>136.382</v>
+        <v>135.4182</v>
       </c>
       <c r="P69" s="2">
-        <v>246.1092</v>
+        <v>246.207</v>
       </c>
       <c r="Q69">
         <v>115.025</v>
@@ -8980,25 +8980,25 @@
         <v>300.993985</v>
       </c>
       <c r="I70" s="2">
-        <v>108.9282</v>
+        <v>109.1668</v>
       </c>
       <c r="K70" s="2">
-        <v>222.8055</v>
+        <v>222.6313</v>
       </c>
       <c r="L70" s="2">
-        <v>180.5851</v>
+        <v>181.2593</v>
       </c>
       <c r="M70" s="2">
-        <v>212.072</v>
+        <v>211.898</v>
       </c>
       <c r="N70" s="2">
-        <v>192.2838</v>
+        <v>178.5857</v>
       </c>
       <c r="O70" s="2">
-        <v>131.2009</v>
+        <v>130.4796</v>
       </c>
       <c r="P70" s="2">
-        <v>241.8767</v>
+        <v>239.2373</v>
       </c>
       <c r="Q70">
         <v>119.77</v>
@@ -9087,25 +9087,25 @@
         <v>306.153505</v>
       </c>
       <c r="I71" s="2">
-        <v>79.3559</v>
+        <v>78.6861</v>
       </c>
       <c r="K71" s="2">
-        <v>212.1482</v>
+        <v>212.4865</v>
       </c>
       <c r="L71" s="2">
-        <v>184.8205</v>
+        <v>184.1955</v>
       </c>
       <c r="M71" s="2">
-        <v>213.9155</v>
+        <v>214.0636</v>
       </c>
       <c r="N71" s="2">
-        <v>193.5828</v>
+        <v>179.8931</v>
       </c>
       <c r="O71" s="2">
-        <v>152.6102</v>
+        <v>156.1691</v>
       </c>
       <c r="P71" s="2">
-        <v>236.0704</v>
+        <v>235.8818</v>
       </c>
       <c r="Q71">
         <v>111.516</v>
@@ -9194,25 +9194,25 @@
         <v>317.94037</v>
       </c>
       <c r="I72" s="2">
-        <v>104.1502</v>
+        <v>101.8028</v>
       </c>
       <c r="K72" s="2">
-        <v>212.0193</v>
+        <v>216.2537</v>
       </c>
       <c r="L72" s="2">
-        <v>184.317</v>
+        <v>184.4729</v>
       </c>
       <c r="M72" s="2">
-        <v>211.6564</v>
+        <v>213.3398</v>
       </c>
       <c r="N72" s="2">
-        <v>178.4239</v>
+        <v>173.631</v>
       </c>
       <c r="O72" s="2">
-        <v>154.7004</v>
+        <v>153.1625</v>
       </c>
       <c r="P72" s="2">
-        <v>224.7038</v>
+        <v>224.6925</v>
       </c>
       <c r="Q72">
         <v>116.484</v>
@@ -9301,25 +9301,25 @@
         <v>298.122475</v>
       </c>
       <c r="I73" s="2">
-        <v>87.9234</v>
+        <v>88.5563</v>
       </c>
       <c r="K73" s="2">
-        <v>215.6547</v>
+        <v>219.6179</v>
       </c>
       <c r="L73" s="2">
-        <v>185.528</v>
+        <v>184.6346</v>
       </c>
       <c r="M73" s="2">
-        <v>211.688</v>
+        <v>211.7097</v>
       </c>
       <c r="N73" s="2">
-        <v>168.6986</v>
+        <v>187.509</v>
       </c>
       <c r="O73" s="2">
-        <v>135.6944</v>
+        <v>136.7395</v>
       </c>
       <c r="P73" s="2">
-        <v>242.2637</v>
+        <v>241.903</v>
       </c>
       <c r="Q73">
         <v>121.319</v>
@@ -9408,25 +9408,25 @@
         <v>315.797528</v>
       </c>
       <c r="I74" s="2">
-        <v>110.1592</v>
+        <v>110.6014</v>
       </c>
       <c r="K74" s="2">
-        <v>217.8537</v>
+        <v>217.5712</v>
       </c>
       <c r="L74" s="2">
-        <v>178.9792</v>
+        <v>180.1225</v>
       </c>
       <c r="M74" s="2">
-        <v>212.6497</v>
+        <v>214.165</v>
       </c>
       <c r="N74" s="2">
-        <v>193.6087</v>
+        <v>179.0479</v>
       </c>
       <c r="O74" s="2">
-        <v>157.2027</v>
+        <v>155.0705</v>
       </c>
       <c r="P74" s="2">
-        <v>243.9007</v>
+        <v>243.6997</v>
       </c>
       <c r="Q74">
         <v>119.43</v>
@@ -9515,25 +9515,25 @@
         <v>302.371201</v>
       </c>
       <c r="I75" s="2">
-        <v>118.73</v>
+        <v>117.6098</v>
       </c>
       <c r="K75" s="2">
-        <v>211.5518</v>
+        <v>211.3545</v>
       </c>
       <c r="L75" s="2">
-        <v>178.6154</v>
+        <v>180.0446</v>
       </c>
       <c r="M75" s="2">
-        <v>213.3106</v>
+        <v>210.3459</v>
       </c>
       <c r="N75" s="2">
-        <v>179.9973</v>
+        <v>180.369</v>
       </c>
       <c r="O75" s="2">
-        <v>139.6862</v>
+        <v>140.4869</v>
       </c>
       <c r="P75" s="2">
-        <v>237.8249</v>
+        <v>237.8234</v>
       </c>
       <c r="Q75">
         <v>119.877</v>
@@ -9622,25 +9622,25 @@
         <v>294.922867</v>
       </c>
       <c r="I76" s="2">
-        <v>110.3316</v>
+        <v>88.6631</v>
       </c>
       <c r="K76" s="2">
-        <v>219.4798</v>
+        <v>220.2336</v>
       </c>
       <c r="L76" s="2">
-        <v>177.6882</v>
+        <v>176.0035</v>
       </c>
       <c r="M76" s="2">
-        <v>209.4668</v>
+        <v>207.9498</v>
       </c>
       <c r="N76" s="2">
-        <v>181.0319</v>
+        <v>180.2223</v>
       </c>
       <c r="O76" s="2">
-        <v>131.79</v>
+        <v>132.7425</v>
       </c>
       <c r="P76" s="2">
-        <v>238.0149</v>
+        <v>237.9972</v>
       </c>
       <c r="Q76">
         <v>120.755</v>
@@ -9729,25 +9729,25 @@
         <v>307.264613</v>
       </c>
       <c r="I77" s="2">
-        <v>82.31</v>
+        <v>82.0376</v>
       </c>
       <c r="K77" s="2">
-        <v>214.9493</v>
+        <v>214.4518</v>
       </c>
       <c r="L77" s="2">
-        <v>175.971</v>
+        <v>175.7647</v>
       </c>
       <c r="M77" s="2">
-        <v>215.3198</v>
+        <v>212.2302</v>
       </c>
       <c r="N77" s="2">
-        <v>179.4121</v>
+        <v>181.1064</v>
       </c>
       <c r="O77" s="2">
-        <v>166.5128</v>
+        <v>149.587</v>
       </c>
       <c r="P77" s="2">
-        <v>234.246</v>
+        <v>234.2277</v>
       </c>
       <c r="Q77">
         <v>112.761</v>
@@ -9836,25 +9836,25 @@
         <v>292.383124</v>
       </c>
       <c r="I78" s="2">
-        <v>90.1243</v>
+        <v>89.4854</v>
       </c>
       <c r="K78" s="2">
-        <v>218.3692</v>
+        <v>218.176</v>
       </c>
       <c r="L78" s="2">
-        <v>175.0089</v>
+        <v>168.9404</v>
       </c>
       <c r="M78" s="2">
-        <v>214.0616</v>
+        <v>214.2086</v>
       </c>
       <c r="N78" s="2">
-        <v>171.8032</v>
+        <v>171.5452</v>
       </c>
       <c r="O78" s="2">
-        <v>166.199</v>
+        <v>161.1236</v>
       </c>
       <c r="P78" s="2">
-        <v>243.6112</v>
+        <v>243.4239</v>
       </c>
       <c r="Q78">
         <v>115.335</v>
@@ -9943,25 +9943,25 @@
         <v>293.382733</v>
       </c>
       <c r="I79" s="2">
-        <v>103.9201</v>
+        <v>102.3046</v>
       </c>
       <c r="K79" s="2">
-        <v>220.8773</v>
+        <v>221.2111</v>
       </c>
       <c r="L79" s="2">
-        <v>177.3684</v>
+        <v>176.8981</v>
       </c>
       <c r="M79" s="2">
-        <v>211.83</v>
+        <v>212.8763</v>
       </c>
       <c r="N79" s="2">
-        <v>203.5022</v>
+        <v>203.5327</v>
       </c>
       <c r="O79" s="2">
-        <v>159.2855</v>
+        <v>164.0237</v>
       </c>
       <c r="P79" s="2">
-        <v>242.4629</v>
+        <v>242.5994</v>
       </c>
       <c r="Q79">
         <v>120.648</v>
@@ -10050,25 +10050,25 @@
         <v>308.227252</v>
       </c>
       <c r="I80" s="2">
-        <v>74.1564</v>
+        <v>63.1687</v>
       </c>
       <c r="K80" s="2">
-        <v>219.9017</v>
+        <v>216.6212</v>
       </c>
       <c r="L80" s="2">
-        <v>178.2265</v>
+        <v>178.1365</v>
       </c>
       <c r="M80" s="2">
-        <v>213.5584</v>
+        <v>215.4091</v>
       </c>
       <c r="N80" s="2">
-        <v>197.666</v>
+        <v>197.2002</v>
       </c>
       <c r="O80" s="2">
-        <v>145.8508</v>
+        <v>162.2346</v>
       </c>
       <c r="P80" s="2">
-        <v>236.8</v>
+        <v>236.7939</v>
       </c>
       <c r="Q80">
         <v>120.029</v>
@@ -10157,25 +10157,25 @@
         <v>299.129103</v>
       </c>
       <c r="I81" s="2">
-        <v>91.491</v>
+        <v>83.0562</v>
       </c>
       <c r="K81" s="2">
-        <v>220.4604</v>
+        <v>214.5508</v>
       </c>
       <c r="L81" s="2">
-        <v>181.399</v>
+        <v>183.7058</v>
       </c>
       <c r="M81" s="2">
-        <v>211.4212</v>
+        <v>213.6509</v>
       </c>
       <c r="N81" s="2">
-        <v>179.3673</v>
+        <v>179.7975</v>
       </c>
       <c r="O81" s="2">
-        <v>167.1537</v>
+        <v>168.5803</v>
       </c>
       <c r="P81" s="2">
-        <v>236.6308</v>
+        <v>237.735</v>
       </c>
       <c r="Q81">
         <v>121.366</v>
@@ -10264,25 +10264,25 @@
         <v>306.887475</v>
       </c>
       <c r="I82" s="2">
-        <v>85.136</v>
+        <v>94.2873</v>
       </c>
       <c r="K82" s="2">
-        <v>217.1516</v>
+        <v>221.5152</v>
       </c>
       <c r="L82" s="2">
-        <v>183.165</v>
+        <v>183.8254</v>
       </c>
       <c r="M82" s="2">
-        <v>210.6781</v>
+        <v>211.9429</v>
       </c>
       <c r="N82" s="2">
-        <v>207.2775</v>
+        <v>208.9822</v>
       </c>
       <c r="O82" s="2">
-        <v>154.764</v>
+        <v>139.7272</v>
       </c>
       <c r="P82" s="2">
-        <v>251.8329</v>
+        <v>248.8431</v>
       </c>
       <c r="Q82">
         <v>116.177</v>
@@ -10371,25 +10371,25 @@
         <v>307.778021</v>
       </c>
       <c r="I83" s="2">
-        <v>92.7519</v>
+        <v>94.1879</v>
       </c>
       <c r="K83" s="2">
-        <v>220.3261</v>
+        <v>217.7984</v>
       </c>
       <c r="L83" s="2">
-        <v>188.6181</v>
+        <v>189.9355</v>
       </c>
       <c r="M83" s="2">
-        <v>211.5473</v>
+        <v>210.6423</v>
       </c>
       <c r="N83" s="2">
-        <v>210.0152</v>
+        <v>208.8935</v>
       </c>
       <c r="O83" s="2">
-        <v>154.2034</v>
+        <v>155.273</v>
       </c>
       <c r="P83" s="2">
-        <v>241.6365</v>
+        <v>241.8161</v>
       </c>
       <c r="Q83">
         <v>122.323</v>
@@ -10478,25 +10478,25 @@
         <v>314.371377</v>
       </c>
       <c r="I84" s="2">
-        <v>116.366</v>
+        <v>112.8117</v>
       </c>
       <c r="K84" s="2">
-        <v>221.6898</v>
+        <v>220.4069</v>
       </c>
       <c r="L84" s="2">
-        <v>198.9955</v>
+        <v>189.2385</v>
       </c>
       <c r="M84" s="2">
-        <v>207.1872</v>
+        <v>208.4114</v>
       </c>
       <c r="N84" s="2">
-        <v>194.3301</v>
+        <v>183.6954</v>
       </c>
       <c r="O84" s="2">
-        <v>175.6404</v>
+        <v>177.5306</v>
       </c>
       <c r="P84" s="2">
-        <v>244.7817</v>
+        <v>244.935</v>
       </c>
       <c r="Q84">
         <v>117.995</v>
@@ -10585,25 +10585,25 @@
         <v>299.722133</v>
       </c>
       <c r="I85" s="2">
-        <v>108.2624</v>
+        <v>108.2579</v>
       </c>
       <c r="K85" s="2">
-        <v>210.3917</v>
+        <v>206.7762</v>
       </c>
       <c r="L85" s="2">
-        <v>188.1648</v>
+        <v>185.3626</v>
       </c>
       <c r="M85" s="2">
-        <v>213.2674</v>
+        <v>212.3285</v>
       </c>
       <c r="N85" s="2">
-        <v>197.7471</v>
+        <v>198.0738</v>
       </c>
       <c r="O85" s="2">
-        <v>162.808</v>
+        <v>161.2744</v>
       </c>
       <c r="P85" s="2">
-        <v>244.249</v>
+        <v>244.7584</v>
       </c>
       <c r="Q85">
         <v>123.054</v>
@@ -10692,25 +10692,25 @@
         <v>310.309719</v>
       </c>
       <c r="I86" s="2">
-        <v>107.9147</v>
+        <v>110.7433</v>
       </c>
       <c r="K86" s="2">
-        <v>210.4494</v>
+        <v>212.0145</v>
       </c>
       <c r="L86" s="2">
-        <v>190.8393</v>
+        <v>188.9548</v>
       </c>
       <c r="M86" s="2">
-        <v>212.3255</v>
+        <v>212.8593</v>
       </c>
       <c r="N86" s="2">
-        <v>199.2648</v>
+        <v>186.8268</v>
       </c>
       <c r="O86" s="2">
-        <v>178.7063</v>
+        <v>177.176</v>
       </c>
       <c r="P86" s="2">
-        <v>237.4319</v>
+        <v>237.9224</v>
       </c>
       <c r="Q86">
         <v>117.155</v>
@@ -10799,25 +10799,25 @@
         <v>295.766871</v>
       </c>
       <c r="I87" s="2">
-        <v>81.9637</v>
+        <v>87.5579</v>
       </c>
       <c r="K87" s="2">
-        <v>209.2918</v>
+        <v>211.2076</v>
       </c>
       <c r="L87" s="2">
-        <v>187.2975</v>
+        <v>186.5734</v>
       </c>
       <c r="M87" s="2">
-        <v>209.0725</v>
+        <v>210.1904</v>
       </c>
       <c r="N87" s="2">
-        <v>197.3682</v>
+        <v>183.569</v>
       </c>
       <c r="O87" s="2">
-        <v>162.1788</v>
+        <v>162.1601</v>
       </c>
       <c r="P87" s="2">
-        <v>246.0755</v>
+        <v>245.887</v>
       </c>
       <c r="Q87">
         <v>122.31</v>
@@ -10906,25 +10906,25 @@
         <v>309.547161</v>
       </c>
       <c r="I88" s="2">
-        <v>105.9351</v>
+        <v>107.9526</v>
       </c>
       <c r="K88" s="2">
-        <v>216.0739</v>
+        <v>216.6429</v>
       </c>
       <c r="L88" s="2">
-        <v>188.7678</v>
+        <v>186.4838</v>
       </c>
       <c r="M88" s="2">
-        <v>208.9502</v>
+        <v>209.9874</v>
       </c>
       <c r="N88" s="2">
-        <v>200.8455</v>
+        <v>190.0225</v>
       </c>
       <c r="O88" s="2">
-        <v>157.1195</v>
+        <v>159.9534</v>
       </c>
       <c r="P88" s="2">
-        <v>243.9605</v>
+        <v>243.9647</v>
       </c>
       <c r="Q88">
         <v>123.545</v>
@@ -11013,25 +11013,25 @@
         <v>314.227093</v>
       </c>
       <c r="I89" s="2">
-        <v>81.2694</v>
+        <v>81.8903</v>
       </c>
       <c r="K89" s="2">
-        <v>219.5218</v>
+        <v>215.2876</v>
       </c>
       <c r="L89" s="2">
-        <v>188.7393</v>
+        <v>188.6686</v>
       </c>
       <c r="M89" s="2">
-        <v>209.0498</v>
+        <v>210.3245</v>
       </c>
       <c r="N89" s="2">
-        <v>201.5878</v>
+        <v>199.3037</v>
       </c>
       <c r="O89" s="2">
-        <v>164.2231</v>
+        <v>163.4268</v>
       </c>
       <c r="P89" s="2">
-        <v>236.8995</v>
+        <v>236.8812</v>
       </c>
       <c r="Q89">
         <v>111.85</v>
@@ -11120,25 +11120,25 @@
         <v>310.283765</v>
       </c>
       <c r="I90" s="2">
-        <v>88.2799</v>
+        <v>96.68</v>
       </c>
       <c r="K90" s="2">
-        <v>215.2993</v>
+        <v>212.1564</v>
       </c>
       <c r="L90" s="2">
-        <v>184.0199</v>
+        <v>189.0391</v>
       </c>
       <c r="M90" s="2">
-        <v>207.9325</v>
+        <v>207.6771</v>
       </c>
       <c r="N90" s="2">
-        <v>200.8517</v>
+        <v>202.1817</v>
       </c>
       <c r="O90" s="2">
-        <v>167.137</v>
+        <v>167.7662</v>
       </c>
       <c r="P90" s="2">
-        <v>235.8038</v>
+        <v>237.445</v>
       </c>
       <c r="Q90">
         <v>115.979</v>
@@ -11227,25 +11227,25 @@
         <v>317.813132</v>
       </c>
       <c r="I91" s="2">
-        <v>106.7623</v>
+        <v>105.5569</v>
       </c>
       <c r="K91" s="2">
-        <v>212.8483</v>
+        <v>212.0276</v>
       </c>
       <c r="L91" s="2">
-        <v>188.1266</v>
+        <v>188.6584</v>
       </c>
       <c r="M91" s="2">
-        <v>207.6655</v>
+        <v>209.2597</v>
       </c>
       <c r="N91" s="2">
-        <v>202.1842</v>
+        <v>189.5048</v>
       </c>
       <c r="O91" s="2">
-        <v>147.5064</v>
+        <v>146.997</v>
       </c>
       <c r="P91" s="2">
-        <v>245.0758</v>
+        <v>245.0587</v>
       </c>
       <c r="Q91">
         <v>110.45</v>
@@ -11334,25 +11334,25 @@
         <v>311.581983</v>
       </c>
       <c r="I92" s="2">
-        <v>110.4692</v>
+        <v>109.3141</v>
       </c>
       <c r="K92" s="2">
-        <v>214.4142</v>
+        <v>215.2197</v>
       </c>
       <c r="L92" s="2">
-        <v>185.9793</v>
+        <v>184.991</v>
       </c>
       <c r="M92" s="2">
-        <v>209.7999</v>
+        <v>209.033</v>
       </c>
       <c r="N92" s="2">
-        <v>202.3671</v>
+        <v>202.3799</v>
       </c>
       <c r="O92" s="2">
-        <v>160.3553</v>
+        <v>160.2255</v>
       </c>
       <c r="P92" s="2">
-        <v>238.8907</v>
+        <v>238.8785</v>
       </c>
       <c r="Q92">
         <v>114.024</v>
@@ -11441,25 +11441,25 @@
         <v>310.611038</v>
       </c>
       <c r="I93" s="2">
-        <v>78.1144</v>
+        <v>78.2091</v>
       </c>
       <c r="K93" s="2">
-        <v>217.6545</v>
+        <v>218.0837</v>
       </c>
       <c r="L93" s="2">
-        <v>185.0779</v>
+        <v>185.1721</v>
       </c>
       <c r="M93" s="2">
-        <v>207.8336</v>
+        <v>207.7624</v>
       </c>
       <c r="N93" s="2">
-        <v>204.3253</v>
+        <v>191.0673</v>
       </c>
       <c r="O93" s="2">
-        <v>185.1357</v>
+        <v>184.8552</v>
       </c>
       <c r="P93" s="2">
-        <v>238.6357</v>
+        <v>238.4627</v>
       </c>
       <c r="Q93">
         <v>119.891</v>
@@ -11548,25 +11548,25 @@
         <v>312.579365</v>
       </c>
       <c r="I94" s="2">
-        <v>97.284</v>
+        <v>97.7103</v>
       </c>
       <c r="K94" s="2">
-        <v>222.775</v>
+        <v>215.7121</v>
       </c>
       <c r="L94" s="2">
-        <v>184.6937</v>
+        <v>185.7248</v>
       </c>
       <c r="M94" s="2">
-        <v>207.4354</v>
+        <v>206.5945</v>
       </c>
       <c r="N94" s="2">
-        <v>214.222</v>
+        <v>217.1729</v>
       </c>
       <c r="O94" s="2">
-        <v>182.998</v>
+        <v>183.4351</v>
       </c>
       <c r="P94" s="2">
-        <v>237.0375</v>
+        <v>237.5243</v>
       </c>
       <c r="Q94">
         <v>113.229</v>
@@ -11655,25 +11655,25 @@
         <v>285.692431</v>
       </c>
       <c r="I95" s="2">
-        <v>94.1332</v>
+        <v>92.6517</v>
       </c>
       <c r="K95" s="2">
-        <v>220.0573</v>
+        <v>218.6826</v>
       </c>
       <c r="L95" s="2">
-        <v>191.0238</v>
+        <v>191.4473</v>
       </c>
       <c r="M95" s="2">
-        <v>208.5813</v>
+        <v>207.4754</v>
       </c>
       <c r="N95" s="2">
-        <v>192.7851</v>
+        <v>190.2997</v>
       </c>
       <c r="O95" s="2">
-        <v>190.9995</v>
+        <v>189.8531</v>
       </c>
       <c r="P95" s="2">
-        <v>240.5675</v>
+        <v>240.7448</v>
       </c>
       <c r="Q95">
         <v>122.281</v>
@@ -11762,25 +11762,25 @@
         <v>81.228065</v>
       </c>
       <c r="I96" s="2">
-        <v>91.1157</v>
+        <v>91.1934</v>
       </c>
       <c r="K96" s="2">
-        <v>219.0921</v>
+        <v>215.9285</v>
       </c>
       <c r="L96" s="2">
-        <v>191.8676</v>
+        <v>193.0032</v>
       </c>
       <c r="M96" s="2">
-        <v>211.7368</v>
+        <v>210.5063</v>
       </c>
       <c r="N96" s="2">
-        <v>192.4078</v>
+        <v>194.5316</v>
       </c>
       <c r="O96" s="2">
-        <v>197.4319</v>
+        <v>199.5747</v>
       </c>
       <c r="P96" s="2">
-        <v>237.4569</v>
+        <v>237.4544</v>
       </c>
       <c r="Q96">
         <v>114.805</v>
@@ -11869,25 +11869,25 @@
         <v>309.99018</v>
       </c>
       <c r="I97" s="2">
-        <v>95.9332</v>
+        <v>94.5073</v>
       </c>
       <c r="K97" s="2">
-        <v>220.5591</v>
+        <v>220.8325</v>
       </c>
       <c r="L97" s="2">
-        <v>186.6166</v>
+        <v>187.4938</v>
       </c>
       <c r="M97" s="2">
-        <v>211.9436</v>
+        <v>205.5789</v>
       </c>
       <c r="N97" s="2">
-        <v>160.3445</v>
+        <v>159.385</v>
       </c>
       <c r="O97" s="2">
-        <v>182.8141</v>
+        <v>181.7735</v>
       </c>
       <c r="P97" s="2">
-        <v>248.7382</v>
+        <v>248.5233</v>
       </c>
       <c r="Q97">
         <v>116.627</v>
@@ -11976,25 +11976,25 @@
         <v>316.833071</v>
       </c>
       <c r="I98" s="2">
-        <v>111.9731</v>
+        <v>89.7366</v>
       </c>
       <c r="K98" s="2">
-        <v>215.4389</v>
+        <v>215.5856</v>
       </c>
       <c r="L98" s="2">
-        <v>180.9711</v>
+        <v>181.3927</v>
       </c>
       <c r="M98" s="2">
-        <v>212.6227</v>
+        <v>212.3509</v>
       </c>
       <c r="N98" s="2">
-        <v>179.5868</v>
+        <v>165.0309</v>
       </c>
       <c r="O98" s="2">
-        <v>180.3084</v>
+        <v>167.7972</v>
       </c>
       <c r="P98" s="2">
-        <v>230.5119</v>
+        <v>230.511</v>
       </c>
       <c r="Q98">
         <v>124.067</v>
@@ -12083,25 +12083,25 @@
         <v>294.696671</v>
       </c>
       <c r="I99" s="2">
-        <v>92.5824</v>
+        <v>92.5547</v>
       </c>
       <c r="K99" s="2">
-        <v>224.5566</v>
+        <v>223.6862</v>
       </c>
       <c r="L99" s="2">
-        <v>182.6815</v>
+        <v>183.1733</v>
       </c>
       <c r="M99" s="2">
-        <v>211.7119</v>
+        <v>211.1272</v>
       </c>
       <c r="N99" s="2">
-        <v>180.8453</v>
+        <v>165.0961</v>
       </c>
       <c r="O99" s="2">
-        <v>176.2395</v>
+        <v>178.3975</v>
       </c>
       <c r="P99" s="2">
-        <v>245.7501</v>
+        <v>245.9101</v>
       </c>
       <c r="Q99">
         <v>117.906</v>
@@ -12190,25 +12190,25 @@
         <v>306.663133</v>
       </c>
       <c r="I100" s="2">
-        <v>90.8381</v>
+        <v>90.1052</v>
       </c>
       <c r="K100" s="2">
-        <v>200.0571</v>
+        <v>209.2916</v>
       </c>
       <c r="L100" s="2">
-        <v>186.4357</v>
+        <v>187.4499</v>
       </c>
       <c r="M100" s="2">
-        <v>214.8468</v>
+        <v>211.4364</v>
       </c>
       <c r="N100" s="2">
-        <v>179.5763</v>
+        <v>165.0555</v>
       </c>
       <c r="O100" s="2">
-        <v>208.3204</v>
+        <v>209.3552</v>
       </c>
       <c r="P100" s="2">
-        <v>242.1505</v>
+        <v>242.1345</v>
       </c>
       <c r="Q100">
         <v>120.159</v>
@@ -12294,22 +12294,22 @@
         <v>316.569888</v>
       </c>
       <c r="I101" s="2">
-        <v>94.2655</v>
+        <v>97.1919</v>
       </c>
       <c r="K101" s="2">
-        <v>221.8151</v>
+        <v>214.4056</v>
       </c>
       <c r="L101" s="2">
-        <v>192.1643</v>
+        <v>192.1017</v>
       </c>
       <c r="M101" s="2">
-        <v>216.7093</v>
+        <v>217.4895</v>
       </c>
       <c r="O101" s="2">
-        <v>211.06</v>
+        <v>209.9819</v>
       </c>
       <c r="P101" s="2">
-        <v>237.083</v>
+        <v>237.0801</v>
       </c>
       <c r="Q101">
         <v>104.556</v>
@@ -12377,13 +12377,13 @@
         <v>307.712474</v>
       </c>
       <c r="L102" s="2">
-        <v>186.7915</v>
+        <v>187.2835</v>
       </c>
       <c r="M102" s="2">
-        <v>216.3244</v>
+        <v>216.7965</v>
       </c>
       <c r="P102" s="2">
-        <v>242.0929</v>
+        <v>241.9234</v>
       </c>
       <c r="T102">
         <v>62.8163</v>
@@ -12424,13 +12424,13 @@
         <v>321.126919</v>
       </c>
       <c r="L103" s="2">
-        <v>187.7166</v>
+        <v>188.1646</v>
       </c>
       <c r="M103" s="2">
-        <v>216.3744</v>
+        <v>215.8285</v>
       </c>
       <c r="P103" s="2">
-        <v>251.439</v>
+        <v>251.8022</v>
       </c>
       <c r="T103">
         <v>69.1353</v>
@@ -12468,10 +12468,10 @@
         <v>332.931726</v>
       </c>
       <c r="L104" s="2">
-        <v>186.5456</v>
+        <v>187.4667</v>
       </c>
       <c r="M104" s="2">
-        <v>216.6266</v>
+        <v>216.7379</v>
       </c>
       <c r="T104">
         <v>67.8519</v>
@@ -12500,10 +12500,10 @@
         <v>327.575562</v>
       </c>
       <c r="L105" s="2">
-        <v>184.2161</v>
+        <v>184.1846</v>
       </c>
       <c r="M105" s="2">
-        <v>205.1259</v>
+        <v>206.5302</v>
       </c>
       <c r="T105">
         <v>60.2814</v>
@@ -12532,10 +12532,10 @@
         <v>306.414648</v>
       </c>
       <c r="L106" s="2">
-        <v>186.2008</v>
+        <v>186.286</v>
       </c>
       <c r="M106" s="2">
-        <v>217.3458</v>
+        <v>216.3709</v>
       </c>
       <c r="T106">
         <v>59.8982</v>
@@ -12564,10 +12564,10 @@
         <v>325.677018</v>
       </c>
       <c r="L107" s="2">
-        <v>184.5977</v>
+        <v>185.1454</v>
       </c>
       <c r="M107" s="2">
-        <v>215.62</v>
+        <v>214.8253</v>
       </c>
       <c r="T107">
         <v>66.0887</v>
@@ -12596,10 +12596,10 @@
         <v>328.480934</v>
       </c>
       <c r="L108" s="2">
-        <v>182.8644</v>
+        <v>183.0944</v>
       </c>
       <c r="M108" s="2">
-        <v>216.2884</v>
+        <v>216.4503</v>
       </c>
       <c r="T108">
         <v>68.7713</v>
@@ -12628,10 +12628,10 @@
         <v>314.319492</v>
       </c>
       <c r="L109" s="2">
-        <v>185.3007</v>
+        <v>185.2079</v>
       </c>
       <c r="M109" s="2">
-        <v>215.639</v>
+        <v>215.7414</v>
       </c>
       <c r="T109">
         <v>70.6773</v>
@@ -12660,10 +12660,10 @@
         <v>320.098607</v>
       </c>
       <c r="L110" s="2">
-        <v>184.0414</v>
+        <v>183.9275</v>
       </c>
       <c r="M110" s="2">
-        <v>214.4937</v>
+        <v>216.1346</v>
       </c>
       <c r="T110">
         <v>70.0479</v>
@@ -12692,10 +12692,10 @@
         <v>321.573099</v>
       </c>
       <c r="L111" s="2">
-        <v>186.7</v>
+        <v>186.7733</v>
       </c>
       <c r="M111" s="2">
-        <v>216.002</v>
+        <v>215.9976</v>
       </c>
       <c r="T111">
         <v>70.6009</v>
@@ -12724,10 +12724,10 @@
         <v>328.89483</v>
       </c>
       <c r="L112" s="2">
-        <v>184.7484</v>
+        <v>185.3147</v>
       </c>
       <c r="M112" s="2">
-        <v>215.0826</v>
+        <v>215.8106</v>
       </c>
       <c r="T112">
         <v>68.7738</v>
@@ -12756,10 +12756,10 @@
         <v>330.985748</v>
       </c>
       <c r="L113" s="2">
-        <v>185.3031</v>
+        <v>186.3985</v>
       </c>
       <c r="M113" s="2">
-        <v>218.5262</v>
+        <v>217.7614</v>
       </c>
       <c r="T113">
         <v>71.0575</v>
@@ -12788,10 +12788,10 @@
         <v>325.049104</v>
       </c>
       <c r="L114" s="2">
-        <v>186.0785</v>
+        <v>183.9761</v>
       </c>
       <c r="M114" s="2">
-        <v>215.8159</v>
+        <v>215.7657</v>
       </c>
       <c r="T114">
         <v>68.1497</v>
@@ -12820,10 +12820,10 @@
         <v>316.965978</v>
       </c>
       <c r="L115" s="2">
-        <v>184.9132</v>
+        <v>186.3289</v>
       </c>
       <c r="M115" s="2">
-        <v>216.1839</v>
+        <v>215.5911</v>
       </c>
       <c r="T115">
         <v>64.9051</v>
@@ -12852,10 +12852,10 @@
         <v>327.555797</v>
       </c>
       <c r="L116" s="2">
-        <v>185.8663</v>
+        <v>186.9744</v>
       </c>
       <c r="M116" s="2">
-        <v>216.6024</v>
+        <v>217.238</v>
       </c>
       <c r="T116">
         <v>59.8639</v>
@@ -12884,10 +12884,10 @@
         <v>330.887926</v>
       </c>
       <c r="L117" s="2">
-        <v>187.8125</v>
+        <v>188.4052</v>
       </c>
       <c r="M117" s="2">
-        <v>216.2624</v>
+        <v>217.4248</v>
       </c>
       <c r="T117">
         <v>59.5235</v>
@@ -12916,10 +12916,10 @@
         <v>327.5</v>
       </c>
       <c r="L118" s="2">
-        <v>187.9001</v>
+        <v>188.9348</v>
       </c>
       <c r="M118" s="2">
-        <v>218.1406</v>
+        <v>218.1148</v>
       </c>
       <c r="T118">
         <v>52.8826</v>
@@ -12945,7 +12945,7 @@
         <v>327.365675</v>
       </c>
       <c r="M119" s="2">
-        <v>216.2564</v>
+        <v>215.8047</v>
       </c>
       <c r="U119">
         <v>68.6511</v>
@@ -12962,7 +12962,7 @@
         <v>320.393343</v>
       </c>
       <c r="M120" s="2">
-        <v>208.8857</v>
+        <v>215.5493</v>
       </c>
       <c r="U120">
         <v>66.7642</v>
@@ -12979,7 +12979,7 @@
         <v>330.404298</v>
       </c>
       <c r="M121" s="2">
-        <v>218.5249</v>
+        <v>215.9143</v>
       </c>
       <c r="U121">
         <v>64.4311</v>
@@ -12996,7 +12996,7 @@
         <v>319.113492</v>
       </c>
       <c r="M122" s="2">
-        <v>218.6655</v>
+        <v>219.3178</v>
       </c>
       <c r="U122">
         <v>47.2954</v>
@@ -13013,7 +13013,7 @@
         <v>325.171568</v>
       </c>
       <c r="M123" s="2">
-        <v>213.9941</v>
+        <v>213.504</v>
       </c>
       <c r="U123">
         <v>64.6984</v>
@@ -13030,7 +13030,7 @@
         <v>333.199412</v>
       </c>
       <c r="M124" s="2">
-        <v>216.3943</v>
+        <v>216.3019</v>
       </c>
       <c r="U124">
         <v>69.6864</v>
@@ -13047,7 +13047,7 @@
         <v>328.161029</v>
       </c>
       <c r="M125" s="2">
-        <v>215.5652</v>
+        <v>216.3668</v>
       </c>
       <c r="U125">
         <v>72.2335</v>
@@ -13064,7 +13064,7 @@
         <v>339.70306</v>
       </c>
       <c r="M126" s="2">
-        <v>214.8275</v>
+        <v>215.3257</v>
       </c>
       <c r="U126">
         <v>68.3952</v>
@@ -13081,7 +13081,7 @@
         <v>341.413566</v>
       </c>
       <c r="M127" s="2">
-        <v>215.5084</v>
+        <v>215.5831</v>
       </c>
       <c r="U127">
         <v>67.1078</v>
@@ -13098,7 +13098,7 @@
         <v>343.144352</v>
       </c>
       <c r="M128" s="2">
-        <v>212.3602</v>
+        <v>212.8803</v>
       </c>
       <c r="U128">
         <v>74.0981</v>
@@ -13115,7 +13115,7 @@
         <v>343.27006</v>
       </c>
       <c r="M129" s="2">
-        <v>213.6009</v>
+        <v>213.6104</v>
       </c>
       <c r="U129">
         <v>74.259</v>
@@ -13132,7 +13132,7 @@
         <v>329.971026</v>
       </c>
       <c r="M130" s="2">
-        <v>214.4883</v>
+        <v>214.4658</v>
       </c>
       <c r="U130">
         <v>74.8265</v>
@@ -13149,7 +13149,7 @@
         <v>298.939849</v>
       </c>
       <c r="M131" s="2">
-        <v>215.4981</v>
+        <v>211.1657</v>
       </c>
       <c r="U131">
         <v>72.9164</v>
@@ -13166,7 +13166,7 @@
         <v>332.414951</v>
       </c>
       <c r="M132" s="2">
-        <v>216.0127</v>
+        <v>216.0618</v>
       </c>
       <c r="U132">
         <v>74.3457</v>
@@ -13183,7 +13183,7 @@
         <v>233.334304</v>
       </c>
       <c r="M133" s="2">
-        <v>214.365</v>
+        <v>214.4694</v>
       </c>
       <c r="U133">
         <v>62.9163</v>
@@ -13200,7 +13200,7 @@
         <v>338.666389</v>
       </c>
       <c r="M134" s="2">
-        <v>214.1058</v>
+        <v>215.1435</v>
       </c>
       <c r="U134">
         <v>65.3381</v>
@@ -13217,7 +13217,7 @@
         <v>346.802864</v>
       </c>
       <c r="M135" s="2">
-        <v>216.6287</v>
+        <v>214.7907</v>
       </c>
       <c r="U135">
         <v>75.1062</v>
@@ -13234,7 +13234,7 @@
         <v>281.881993</v>
       </c>
       <c r="M136" s="2">
-        <v>206.8281</v>
+        <v>209.794</v>
       </c>
       <c r="U136">
         <v>68.7449</v>
@@ -13251,7 +13251,7 @@
         <v>346.769616</v>
       </c>
       <c r="M137" s="2">
-        <v>209.618</v>
+        <v>210.0056</v>
       </c>
       <c r="U137">
         <v>61.24</v>
@@ -13268,7 +13268,7 @@
         <v>341.041503</v>
       </c>
       <c r="M138" s="2">
-        <v>206.7624</v>
+        <v>207.1541</v>
       </c>
       <c r="U138">
         <v>67.9742</v>
@@ -13285,7 +13285,7 @@
         <v>343.839354</v>
       </c>
       <c r="M139" s="2">
-        <v>205.752</v>
+        <v>205.7524</v>
       </c>
       <c r="U139">
         <v>61.1085</v>
@@ -13302,7 +13302,7 @@
         <v>339.894697</v>
       </c>
       <c r="M140" s="2">
-        <v>205.3537</v>
+        <v>204.6962</v>
       </c>
       <c r="U140">
         <v>62.4039</v>
@@ -13319,7 +13319,7 @@
         <v>340.383898</v>
       </c>
       <c r="M141" s="2">
-        <v>207.7952</v>
+        <v>206.2492</v>
       </c>
       <c r="U141">
         <v>62.1776</v>
@@ -13336,7 +13336,7 @@
         <v>346.773343</v>
       </c>
       <c r="M142" s="2">
-        <v>209.5373</v>
+        <v>211.1872</v>
       </c>
       <c r="U142">
         <v>64.0329</v>
@@ -13353,7 +13353,7 @@
         <v>347.389855</v>
       </c>
       <c r="M143" s="2">
-        <v>203.7148</v>
+        <v>203.2572</v>
       </c>
       <c r="U143">
         <v>60.7364</v>
@@ -13370,7 +13370,7 @@
         <v>282.499267</v>
       </c>
       <c r="M144" s="2">
-        <v>213.2754</v>
+        <v>214.1029</v>
       </c>
       <c r="U144">
         <v>63.5338</v>
@@ -13387,7 +13387,7 @@
         <v>341.429073</v>
       </c>
       <c r="M145" s="2">
-        <v>213.4506</v>
+        <v>214.8634</v>
       </c>
       <c r="U145">
         <v>62.3159</v>
@@ -13404,7 +13404,7 @@
         <v>338.096729</v>
       </c>
       <c r="M146" s="2">
-        <v>209.5321</v>
+        <v>209.9703</v>
       </c>
       <c r="U146">
         <v>61.1695</v>
@@ -13421,7 +13421,7 @@
         <v>145.079128</v>
       </c>
       <c r="M147" s="2">
-        <v>212.3023</v>
+        <v>209.02</v>
       </c>
       <c r="U147">
         <v>60.5347</v>
@@ -13438,7 +13438,7 @@
         <v>350.721761</v>
       </c>
       <c r="M148" s="2">
-        <v>210.4345</v>
+        <v>210.0567</v>
       </c>
       <c r="U148">
         <v>58.7786</v>
@@ -13455,7 +13455,7 @@
         <v>351.889934</v>
       </c>
       <c r="M149" s="2">
-        <v>211.0397</v>
+        <v>210.3245</v>
       </c>
       <c r="U149">
         <v>63.8309</v>
@@ -13472,7 +13472,7 @@
         <v>351.152456</v>
       </c>
       <c r="M150" s="2">
-        <v>214.5967</v>
+        <v>213.8356</v>
       </c>
       <c r="U150">
         <v>65.2237</v>
@@ -13489,7 +13489,7 @@
         <v>353.583121</v>
       </c>
       <c r="M151" s="2">
-        <v>206.9894</v>
+        <v>204.9387</v>
       </c>
       <c r="U151">
         <v>63.78</v>
@@ -13506,7 +13506,7 @@
         <v>339.629629</v>
       </c>
       <c r="M152" s="2">
-        <v>215.5523</v>
+        <v>214.0603</v>
       </c>
       <c r="U152">
         <v>66.2577</v>
@@ -13523,7 +13523,7 @@
         <v>353.030619</v>
       </c>
       <c r="M153" s="2">
-        <v>217.1334</v>
+        <v>216.6594</v>
       </c>
       <c r="U153">
         <v>65.6952</v>
@@ -13540,7 +13540,7 @@
         <v>349.865517</v>
       </c>
       <c r="M154" s="2">
-        <v>208.6308</v>
+        <v>207.9798</v>
       </c>
       <c r="U154">
         <v>58.9251</v>
@@ -13557,7 +13557,7 @@
         <v>363.156764</v>
       </c>
       <c r="M155" s="2">
-        <v>209.3922</v>
+        <v>208.2998</v>
       </c>
       <c r="U155">
         <v>67.193</v>
@@ -13574,7 +13574,7 @@
         <v>345.976815</v>
       </c>
       <c r="M156" s="2">
-        <v>208.2301</v>
+        <v>208.6091</v>
       </c>
       <c r="U156">
         <v>68.6118</v>
@@ -13591,7 +13591,7 @@
         <v>354.198952</v>
       </c>
       <c r="M157" s="2">
-        <v>203.5287</v>
+        <v>207.6487</v>
       </c>
       <c r="U157">
         <v>68.2352</v>
@@ -13608,7 +13608,7 @@
         <v>302.482861</v>
       </c>
       <c r="M158" s="2">
-        <v>209.3915</v>
+        <v>208.5858</v>
       </c>
       <c r="U158">
         <v>66.3753</v>
@@ -13625,7 +13625,7 @@
         <v>345.318135</v>
       </c>
       <c r="M159" s="2">
-        <v>212.9294</v>
+        <v>212.7398</v>
       </c>
       <c r="U159">
         <v>65.6457</v>
@@ -13642,7 +13642,7 @@
         <v>357.614517</v>
       </c>
       <c r="M160" s="2">
-        <v>208.5691</v>
+        <v>208.1697</v>
       </c>
       <c r="U160">
         <v>67.028</v>
@@ -13659,7 +13659,7 @@
         <v>238.766963</v>
       </c>
       <c r="M161" s="2">
-        <v>214.0689</v>
+        <v>214.1056</v>
       </c>
       <c r="U161">
         <v>64.9939</v>
@@ -13676,7 +13676,7 @@
         <v>357.078376</v>
       </c>
       <c r="M162" s="2">
-        <v>214.7471</v>
+        <v>214.7369</v>
       </c>
       <c r="U162">
         <v>64.509</v>
@@ -13693,7 +13693,7 @@
         <v>357.474605</v>
       </c>
       <c r="M163" s="2">
-        <v>197.8188</v>
+        <v>197.2154</v>
       </c>
       <c r="U163">
         <v>60.6388</v>
@@ -13710,7 +13710,7 @@
         <v>273.545966</v>
       </c>
       <c r="M164" s="2">
-        <v>199.9971</v>
+        <v>199.6542</v>
       </c>
       <c r="U164">
         <v>67.3413</v>
@@ -13727,7 +13727,7 @@
         <v>315.70368</v>
       </c>
       <c r="M165" s="2">
-        <v>199.07</v>
+        <v>199.4138</v>
       </c>
       <c r="U165">
         <v>65.7685</v>
@@ -13744,7 +13744,7 @@
         <v>356.258289</v>
       </c>
       <c r="M166" s="2">
-        <v>199.5552</v>
+        <v>199.8383</v>
       </c>
       <c r="U166">
         <v>63.9768</v>
@@ -13761,7 +13761,7 @@
         <v>348.487538</v>
       </c>
       <c r="M167" s="2">
-        <v>207.316</v>
+        <v>207.6398</v>
       </c>
       <c r="U167">
         <v>63.793</v>
@@ -13778,7 +13778,7 @@
         <v>357.273363</v>
       </c>
       <c r="M168" s="2">
-        <v>200.7002</v>
+        <v>202.0068</v>
       </c>
       <c r="U168">
         <v>64.9603</v>
@@ -13795,7 +13795,7 @@
         <v>317.885393</v>
       </c>
       <c r="M169" s="2">
-        <v>212.2228</v>
+        <v>212.2611</v>
       </c>
       <c r="U169">
         <v>63.2014</v>
@@ -13812,7 +13812,7 @@
         <v>294.205765</v>
       </c>
       <c r="M170" s="2">
-        <v>212.3639</v>
+        <v>213.0476</v>
       </c>
       <c r="U170">
         <v>62.5621</v>
@@ -13829,7 +13829,7 @@
         <v>335.351159</v>
       </c>
       <c r="M171" s="2">
-        <v>213.9718</v>
+        <v>214.3038</v>
       </c>
       <c r="U171">
         <v>64.219</v>
@@ -13846,7 +13846,7 @@
         <v>223.477887</v>
       </c>
       <c r="M172" s="2">
-        <v>213.3599</v>
+        <v>212.9834</v>
       </c>
       <c r="U172">
         <v>66.2224</v>
@@ -13863,7 +13863,7 @@
         <v>333.679487</v>
       </c>
       <c r="M173" s="2">
-        <v>212.3358</v>
+        <v>212.4104</v>
       </c>
       <c r="U173">
         <v>64.3171</v>
@@ -13880,7 +13880,7 @@
         <v>332.835677</v>
       </c>
       <c r="M174" s="2">
-        <v>212.739</v>
+        <v>212.0073</v>
       </c>
       <c r="U174">
         <v>60.6577</v>
@@ -13897,7 +13897,7 @@
         <v>207.895367</v>
       </c>
       <c r="M175" s="2">
-        <v>212.2226</v>
+        <v>210.0948</v>
       </c>
       <c r="U175">
         <v>66.7189</v>
@@ -13914,7 +13914,7 @@
         <v>335.651192</v>
       </c>
       <c r="M176" s="2">
-        <v>212.5491</v>
+        <v>211.8613</v>
       </c>
       <c r="U176">
         <v>63.7279</v>
@@ -13931,7 +13931,7 @@
         <v>337.722997</v>
       </c>
       <c r="M177" s="2">
-        <v>212.3418</v>
+        <v>211.9661</v>
       </c>
       <c r="U177">
         <v>62.123</v>
@@ -13948,7 +13948,7 @@
         <v>335.318352</v>
       </c>
       <c r="M178" s="2">
-        <v>212.6422</v>
+        <v>212.0283</v>
       </c>
       <c r="U178">
         <v>65.9762</v>
@@ -13965,7 +13965,7 @@
         <v>341.82628</v>
       </c>
       <c r="M179" s="2">
-        <v>208.0542</v>
+        <v>211.0509</v>
       </c>
       <c r="U179">
         <v>64.4396</v>
@@ -13982,7 +13982,7 @@
         <v>302.392344</v>
       </c>
       <c r="M180" s="2">
-        <v>211.2052</v>
+        <v>211.6126</v>
       </c>
       <c r="U180">
         <v>62.7623</v>
@@ -13999,7 +13999,7 @@
         <v>337.880503</v>
       </c>
       <c r="M181" s="2">
-        <v>212.0849</v>
+        <v>211.4464</v>
       </c>
       <c r="U181">
         <v>63.4738</v>
@@ -14016,7 +14016,7 @@
         <v>229.790419</v>
       </c>
       <c r="M182" s="2">
-        <v>212.1672</v>
+        <v>212.5567</v>
       </c>
       <c r="U182">
         <v>63.5162</v>
@@ -14033,7 +14033,7 @@
         <v>331.437384</v>
       </c>
       <c r="M183" s="2">
-        <v>212.6081</v>
+        <v>211.5215</v>
       </c>
       <c r="U183">
         <v>63.1937</v>
@@ -14050,7 +14050,7 @@
         <v>337.478015</v>
       </c>
       <c r="M184" s="2">
-        <v>211.958</v>
+        <v>212.2222</v>
       </c>
       <c r="U184">
         <v>67.03</v>
@@ -14067,7 +14067,7 @@
         <v>180.110626</v>
       </c>
       <c r="M185" s="2">
-        <v>214.6531</v>
+        <v>214.0725</v>
       </c>
       <c r="U185">
         <v>64.3085</v>
@@ -14084,7 +14084,7 @@
         <v>336.259305</v>
       </c>
       <c r="M186" s="2">
-        <v>213.9268</v>
+        <v>213.2238</v>
       </c>
       <c r="U186">
         <v>62.7895</v>
@@ -14101,7 +14101,7 @@
         <v>335.23191</v>
       </c>
       <c r="M187" s="2">
-        <v>214.1474</v>
+        <v>213.3958</v>
       </c>
       <c r="U187">
         <v>66.8061</v>
@@ -14118,7 +14118,7 @@
         <v>288.883559</v>
       </c>
       <c r="M188" s="2">
-        <v>209.8591</v>
+        <v>210.5561</v>
       </c>
       <c r="U188">
         <v>61.8481</v>
@@ -14135,7 +14135,7 @@
         <v>334.845583</v>
       </c>
       <c r="M189" s="2">
-        <v>208.2111</v>
+        <v>208.8932</v>
       </c>
       <c r="U189">
         <v>62.8419</v>
@@ -14152,7 +14152,7 @@
         <v>188.862567</v>
       </c>
       <c r="M190" s="2">
-        <v>204.3686</v>
+        <v>205.0123</v>
       </c>
       <c r="U190">
         <v>65.5918</v>
@@ -14169,7 +14169,7 @@
         <v>331.38753</v>
       </c>
       <c r="M191" s="2">
-        <v>203.4877</v>
+        <v>202.8118</v>
       </c>
       <c r="U191">
         <v>58.6101</v>
@@ -14186,7 +14186,7 @@
         <v>336.122132</v>
       </c>
       <c r="M192" s="2">
-        <v>204.2238</v>
+        <v>204.5853</v>
       </c>
       <c r="U192">
         <v>61.9998</v>
@@ -14203,7 +14203,7 @@
         <v>334.983008</v>
       </c>
       <c r="M193" s="2">
-        <v>204.9551</v>
+        <v>203.0791</v>
       </c>
       <c r="U193">
         <v>66.6043</v>
@@ -14220,7 +14220,7 @@
         <v>338.612823</v>
       </c>
       <c r="M194" s="2">
-        <v>208.8686</v>
+        <v>210.552</v>
       </c>
       <c r="U194">
         <v>59.7663</v>
@@ -14237,7 +14237,7 @@
         <v>287.042069</v>
       </c>
       <c r="M195" s="2">
-        <v>210.0515</v>
+        <v>213.4391</v>
       </c>
       <c r="U195">
         <v>62.8717</v>
@@ -14254,7 +14254,7 @@
         <v>311.269481</v>
       </c>
       <c r="M196" s="2">
-        <v>215.5602</v>
+        <v>215.1739</v>
       </c>
       <c r="U196">
         <v>66.3457</v>
@@ -14271,7 +14271,7 @@
         <v>337.694435</v>
       </c>
       <c r="M197" s="2">
-        <v>213.7605</v>
+        <v>214.4937</v>
       </c>
       <c r="U197">
         <v>59.0974</v>
@@ -14288,7 +14288,7 @@
         <v>336.16279</v>
       </c>
       <c r="M198" s="2">
-        <v>210.2304</v>
+        <v>209.8957</v>
       </c>
       <c r="U198">
         <v>62.0946</v>
@@ -14305,7 +14305,7 @@
         <v>339.391411</v>
       </c>
       <c r="M199" s="2">
-        <v>209.1328</v>
+        <v>209.7922</v>
       </c>
       <c r="U199">
         <v>66.0486</v>
@@ -14322,7 +14322,7 @@
         <v>267.436708</v>
       </c>
       <c r="M200" s="2">
-        <v>209.0038</v>
+        <v>208.4154</v>
       </c>
       <c r="U200">
         <v>63.4158</v>
@@ -14339,7 +14339,7 @@
         <v>330.321707</v>
       </c>
       <c r="M201" s="2">
-        <v>210.7166</v>
+        <v>211.2502</v>
       </c>
       <c r="U201">
         <v>62.4005</v>
@@ -14356,7 +14356,7 @@
         <v>334.651233</v>
       </c>
       <c r="M202" s="2">
-        <v>210.0819</v>
+        <v>211.4447</v>
       </c>
       <c r="U202">
         <v>65.9838</v>
@@ -14373,7 +14373,7 @@
         <v>182.066183</v>
       </c>
       <c r="M203" s="2">
-        <v>212.8806</v>
+        <v>211.252</v>
       </c>
       <c r="U203">
         <v>62.1182</v>
@@ -14390,7 +14390,7 @@
         <v>336.564211</v>
       </c>
       <c r="M204" s="2">
-        <v>211.5184</v>
+        <v>213.7716</v>
       </c>
       <c r="U204">
         <v>56.6704</v>
@@ -14407,7 +14407,7 @@
         <v>338.129012</v>
       </c>
       <c r="M205" s="2">
-        <v>213.3774</v>
+        <v>214.1079</v>
       </c>
       <c r="U205">
         <v>67.0059</v>
@@ -14424,7 +14424,7 @@
         <v>331.646176</v>
       </c>
       <c r="M206" s="2">
-        <v>212.5103</v>
+        <v>212.1584</v>
       </c>
       <c r="U206">
         <v>63.3267</v>
@@ -14441,7 +14441,7 @@
         <v>331.851185</v>
       </c>
       <c r="M207" s="2">
-        <v>212.6274</v>
+        <v>212.6285</v>
       </c>
       <c r="U207">
         <v>67.8258</v>
@@ -14458,7 +14458,7 @@
         <v>220.468407</v>
       </c>
       <c r="M208" s="2">
-        <v>212.2382</v>
+        <v>212.2059</v>
       </c>
       <c r="U208">
         <v>72.3004</v>
@@ -14475,7 +14475,7 @@
         <v>336.82095</v>
       </c>
       <c r="M209" s="2">
-        <v>212.9504</v>
+        <v>212.3958</v>
       </c>
       <c r="U209">
         <v>69.1129</v>
@@ -14492,7 +14492,7 @@
         <v>338.903186</v>
       </c>
       <c r="M210" s="2">
-        <v>211.3473</v>
+        <v>208.4143</v>
       </c>
       <c r="U210">
         <v>69.8484</v>
@@ -14509,7 +14509,7 @@
         <v>333.689291</v>
       </c>
       <c r="M211" s="2">
-        <v>210.1061</v>
+        <v>210.45</v>
       </c>
       <c r="U211">
         <v>74.062</v>
@@ -14526,7 +14526,7 @@
         <v>341.423099</v>
       </c>
       <c r="M212" s="2">
-        <v>208.9984</v>
+        <v>209.2736</v>
       </c>
       <c r="U212">
         <v>68.1339</v>
@@ -14543,7 +14543,7 @@
         <v>337.946923</v>
       </c>
       <c r="M213" s="2">
-        <v>207.6943</v>
+        <v>208.0198</v>
       </c>
       <c r="U213">
         <v>73.8887</v>
@@ -14560,7 +14560,7 @@
         <v>338.743057</v>
       </c>
       <c r="M214" s="2">
-        <v>208.1937</v>
+        <v>208.1172</v>
       </c>
       <c r="U214">
         <v>70.672</v>
@@ -14577,7 +14577,7 @@
         <v>246.618429</v>
       </c>
       <c r="M215" s="2">
-        <v>204.3011</v>
+        <v>198.1812</v>
       </c>
       <c r="U215">
         <v>74.2506</v>
@@ -14594,7 +14594,7 @@
         <v>284.041666</v>
       </c>
       <c r="M216" s="2">
-        <v>209.6582</v>
+        <v>209.5958</v>
       </c>
       <c r="U216">
         <v>68.7065</v>
@@ -14611,7 +14611,7 @@
         <v>326.732449</v>
       </c>
       <c r="M217" s="2">
-        <v>209.9422</v>
+        <v>213.3498</v>
       </c>
       <c r="U217">
         <v>74.8734</v>
@@ -14628,7 +14628,7 @@
         <v>328.314447</v>
       </c>
       <c r="M218" s="2">
-        <v>210.9025</v>
+        <v>211.5308</v>
       </c>
       <c r="U218">
         <v>68.7667</v>
@@ -14645,7 +14645,7 @@
         <v>210.723636</v>
       </c>
       <c r="M219" s="2">
-        <v>211.1439</v>
+        <v>209.365</v>
       </c>
       <c r="U219">
         <v>74.43</v>
@@ -14662,7 +14662,7 @@
         <v>131.684439</v>
       </c>
       <c r="M220" s="2">
-        <v>216.2661</v>
+        <v>216.7469</v>
       </c>
       <c r="U220">
         <v>66.0157</v>
@@ -14679,7 +14679,7 @@
         <v>315.082009</v>
       </c>
       <c r="M221" s="2">
-        <v>217.162</v>
+        <v>217.6599</v>
       </c>
       <c r="U221">
         <v>72.4495</v>
@@ -14696,7 +14696,7 @@
         <v>341.977959</v>
       </c>
       <c r="M222" s="2">
-        <v>215.7077</v>
+        <v>216.157</v>
       </c>
       <c r="U222">
         <v>65.538</v>
@@ -14713,7 +14713,7 @@
         <v>318.254009</v>
       </c>
       <c r="M223" s="2">
-        <v>217.1522</v>
+        <v>217.0587</v>
       </c>
       <c r="U223">
         <v>72.0456</v>
@@ -14730,7 +14730,7 @@
         <v>229.232954</v>
       </c>
       <c r="M224" s="2">
-        <v>216.4606</v>
+        <v>216.4917</v>
       </c>
       <c r="U224">
         <v>66.6624</v>
@@ -14747,7 +14747,7 @@
         <v>298.272548</v>
       </c>
       <c r="M225" s="2">
-        <v>218.2484</v>
+        <v>217.6914</v>
       </c>
       <c r="U225">
         <v>71.8444</v>
@@ -14764,7 +14764,7 @@
         <v>338.587412</v>
       </c>
       <c r="M226" s="2">
-        <v>215.4994</v>
+        <v>216.0821</v>
       </c>
       <c r="U226">
         <v>65.093</v>
@@ -14781,7 +14781,7 @@
         <v>128.830353</v>
       </c>
       <c r="M227" s="2">
-        <v>218.2681</v>
+        <v>215.3053</v>
       </c>
       <c r="U227">
         <v>70.656</v>
@@ -14798,7 +14798,7 @@
         <v>341.656788</v>
       </c>
       <c r="M228" s="2">
-        <v>210.8852</v>
+        <v>208.9742</v>
       </c>
       <c r="U228">
         <v>64.7181</v>
@@ -14815,7 +14815,7 @@
         <v>340.45285</v>
       </c>
       <c r="M229" s="2">
-        <v>214.56</v>
+        <v>214.2873</v>
       </c>
       <c r="U229">
         <v>66.1079</v>
@@ -14832,7 +14832,7 @@
         <v>336.803689</v>
       </c>
       <c r="M230" s="2">
-        <v>213.8565</v>
+        <v>214.3879</v>
       </c>
       <c r="U230">
         <v>56.6741</v>
@@ -14849,7 +14849,7 @@
         <v>344.809819</v>
       </c>
       <c r="M231" s="2">
-        <v>214.6309</v>
+        <v>212.8493</v>
       </c>
       <c r="U231">
         <v>56.6131</v>
@@ -14866,7 +14866,7 @@
         <v>332.18555</v>
       </c>
       <c r="M232" s="2">
-        <v>213.0143</v>
+        <v>212.7367</v>
       </c>
       <c r="U232">
         <v>52.41</v>
@@ -14883,7 +14883,7 @@
         <v>231.530519</v>
       </c>
       <c r="M233" s="2">
-        <v>212.2823</v>
+        <v>212.8736</v>
       </c>
       <c r="U233">
         <v>55.5955</v>
@@ -14900,7 +14900,7 @@
         <v>335.506561</v>
       </c>
       <c r="M234" s="2">
-        <v>213.604</v>
+        <v>213.0095</v>
       </c>
       <c r="U234">
         <v>55.6211</v>
@@ -14917,7 +14917,7 @@
         <v>344.09152</v>
       </c>
       <c r="M235" s="2">
-        <v>213.5603</v>
+        <v>213.2529</v>
       </c>
       <c r="U235">
         <v>48.9671</v>
@@ -14934,7 +14934,7 @@
         <v>343.265306</v>
       </c>
       <c r="M236" s="2">
-        <v>212.6644</v>
+        <v>212.0816</v>
       </c>
       <c r="U236">
         <v>52.5791</v>
@@ -14951,7 +14951,7 @@
         <v>320.877106</v>
       </c>
       <c r="M237" s="2">
-        <v>211.2369</v>
+        <v>212.1097</v>
       </c>
       <c r="U237">
         <v>47.0865</v>
@@ -14968,7 +14968,7 @@
         <v>341.712401</v>
       </c>
       <c r="M238" s="2">
-        <v>212.3511</v>
+        <v>212.4487</v>
       </c>
       <c r="U238">
         <v>47.0993</v>
@@ -14985,7 +14985,7 @@
         <v>345.376</v>
       </c>
       <c r="M239" s="2">
-        <v>206.6742</v>
+        <v>210.6629</v>
       </c>
       <c r="U239">
         <v>49.6255</v>
@@ -15002,7 +15002,7 @@
         <v>331.091513</v>
       </c>
       <c r="M240" s="2">
-        <v>198.7468</v>
+        <v>211.9889</v>
       </c>
       <c r="U240">
         <v>49.1488</v>
@@ -15019,7 +15019,7 @@
         <v>333.66306</v>
       </c>
       <c r="M241" s="2">
-        <v>214.8076</v>
+        <v>213.5607</v>
       </c>
       <c r="U241">
         <v>49.3819</v>
@@ -15036,7 +15036,7 @@
         <v>346.620283</v>
       </c>
       <c r="M242" s="2">
-        <v>214.9447</v>
+        <v>214.9381</v>
       </c>
       <c r="U242">
         <v>50.1008</v>
@@ -15053,7 +15053,7 @@
         <v>340.076135</v>
       </c>
       <c r="M243" s="2">
-        <v>216.6855</v>
+        <v>217.6629</v>
       </c>
       <c r="U243">
         <v>50.5351</v>
@@ -15070,7 +15070,7 @@
         <v>345.247867</v>
       </c>
       <c r="M244" s="2">
-        <v>214.3899</v>
+        <v>214.6963</v>
       </c>
       <c r="U244">
         <v>50.1362</v>
@@ -15087,7 +15087,7 @@
         <v>342.155309</v>
       </c>
       <c r="M245" s="2">
-        <v>215.0036</v>
+        <v>214.945</v>
       </c>
       <c r="U245">
         <v>55.8175</v>
@@ -15104,7 +15104,7 @@
         <v>336.333933</v>
       </c>
       <c r="M246" s="2">
-        <v>213.5196</v>
+        <v>211.8012</v>
       </c>
       <c r="U246">
         <v>54.7712</v>
@@ -15121,7 +15121,7 @@
         <v>346.777188</v>
       </c>
       <c r="M247" s="2">
-        <v>214.2681</v>
+        <v>214.6016</v>
       </c>
       <c r="U247">
         <v>54.6288</v>
@@ -15138,7 +15138,7 @@
         <v>344.527009</v>
       </c>
       <c r="M248" s="2">
-        <v>212.0411</v>
+        <v>212.1015</v>
       </c>
       <c r="U248">
         <v>52.619</v>
@@ -15155,7 +15155,7 @@
         <v>345.89947</v>
       </c>
       <c r="M249" s="2">
-        <v>213.2773</v>
+        <v>206.7688</v>
       </c>
       <c r="U249">
         <v>56.3496</v>
@@ -15172,7 +15172,7 @@
         <v>297.436305</v>
       </c>
       <c r="M250" s="2">
-        <v>205.9481</v>
+        <v>206.1425</v>
       </c>
       <c r="U250">
         <v>54.6783</v>
@@ -15189,7 +15189,7 @@
         <v>349.148197</v>
       </c>
       <c r="M251" s="2">
-        <v>204.1523</v>
+        <v>207.4179</v>
       </c>
       <c r="U251">
         <v>49.1383</v>
@@ -15206,7 +15206,7 @@
         <v>341.231732</v>
       </c>
       <c r="M252" s="2">
-        <v>206.826</v>
+        <v>207.3901</v>
       </c>
       <c r="U252">
         <v>51.745</v>
@@ -15223,7 +15223,7 @@
         <v>344.203737</v>
       </c>
       <c r="M253" s="2">
-        <v>207.5128</v>
+        <v>207.5408</v>
       </c>
       <c r="U253">
         <v>54.6954</v>
@@ -15240,7 +15240,7 @@
         <v>345.939153</v>
       </c>
       <c r="M254" s="2">
-        <v>208.9673</v>
+        <v>208.8728</v>
       </c>
       <c r="U254">
         <v>51.298</v>
@@ -15257,7 +15257,7 @@
         <v>339.637868</v>
       </c>
       <c r="M255" s="2">
-        <v>207.802</v>
+        <v>210.6346</v>
       </c>
       <c r="U255">
         <v>54.8417</v>
@@ -15274,7 +15274,7 @@
         <v>347.367584</v>
       </c>
       <c r="M256" s="2">
-        <v>211.8709</v>
+        <v>212.4654</v>
       </c>
       <c r="U256">
         <v>51.9985</v>
@@ -15291,7 +15291,7 @@
         <v>340.163381</v>
       </c>
       <c r="M257" s="2">
-        <v>210.7837</v>
+        <v>211.9766</v>
       </c>
       <c r="U257">
         <v>54.5221</v>
@@ -15308,7 +15308,7 @@
         <v>334.376752</v>
       </c>
       <c r="M258" s="2">
-        <v>211.8983</v>
+        <v>212.165</v>
       </c>
       <c r="U258">
         <v>51.9567</v>
@@ -15325,7 +15325,7 @@
         <v>348.22936</v>
       </c>
       <c r="M259" s="2">
-        <v>213.1401</v>
+        <v>211.1561</v>
       </c>
       <c r="U259">
         <v>55.639</v>
@@ -15342,7 +15342,7 @@
         <v>337.399691</v>
       </c>
       <c r="M260" s="2">
-        <v>213.1636</v>
+        <v>212.9076</v>
       </c>
       <c r="U260">
         <v>51.5403</v>
@@ -15359,7 +15359,7 @@
         <v>342.2515</v>
       </c>
       <c r="M261" s="2">
-        <v>213.2343</v>
+        <v>211.7755</v>
       </c>
       <c r="U261">
         <v>53.1281</v>
@@ -15376,7 +15376,7 @@
         <v>332.284701</v>
       </c>
       <c r="M262" s="2">
-        <v>212.8195</v>
+        <v>213.6844</v>
       </c>
       <c r="U262">
         <v>51.658</v>
@@ -15393,7 +15393,7 @@
         <v>348.060052</v>
       </c>
       <c r="M263" s="2">
-        <v>209.7747</v>
+        <v>210.341</v>
       </c>
       <c r="U263">
         <v>53.8818</v>
@@ -15410,7 +15410,7 @@
         <v>349.984247</v>
       </c>
       <c r="M264" s="2">
-        <v>206.5216</v>
+        <v>204.6561</v>
       </c>
       <c r="U264">
         <v>50.0192</v>
@@ -15427,7 +15427,7 @@
         <v>317.265587</v>
       </c>
       <c r="M265" s="2">
-        <v>208.0138</v>
+        <v>207.7716</v>
       </c>
       <c r="U265">
         <v>55.7079</v>
@@ -15444,7 +15444,7 @@
         <v>348.822605</v>
       </c>
       <c r="M266" s="2">
-        <v>209.6649</v>
+        <v>210.1803</v>
       </c>
       <c r="U266">
         <v>51.0714</v>
@@ -15461,7 +15461,7 @@
         <v>344.598087</v>
       </c>
       <c r="M267" s="2">
-        <v>210.771</v>
+        <v>213.5928</v>
       </c>
       <c r="U267">
         <v>55.3951</v>
@@ -15478,7 +15478,7 @@
         <v>345.68058</v>
       </c>
       <c r="M268" s="2">
-        <v>213.3084</v>
+        <v>212.4542</v>
       </c>
       <c r="U268">
         <v>50.8976</v>
@@ -15495,7 +15495,7 @@
         <v>345.064699</v>
       </c>
       <c r="M269" s="2">
-        <v>211.56</v>
+        <v>211.572</v>
       </c>
       <c r="U269">
         <v>45.3033</v>
@@ -15512,7 +15512,7 @@
         <v>344.362086</v>
       </c>
       <c r="M270" s="2">
-        <v>206.5573</v>
+        <v>206.8319</v>
       </c>
       <c r="U270">
         <v>45.2307</v>
@@ -15529,7 +15529,7 @@
         <v>345.597225</v>
       </c>
       <c r="M271" s="2">
-        <v>204.1483</v>
+        <v>204.405</v>
       </c>
       <c r="U271">
         <v>54.6634</v>
